--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1443AC-AC76-42E8-B8FF-A7A766108424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A863BF-E050-45A0-A9E7-C642AF446BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="739">
   <si>
     <t>User Name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -97,1575 +97,1575 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Vaishnavi Sawant</t>
+  </si>
+  <si>
+    <t>vaishnavi31272@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shaun Rodrigues</t>
+  </si>
+  <si>
+    <t>shaunrodrigues4321@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game]</t>
+  </si>
+  <si>
+    <t>Liston D'souza</t>
+  </si>
+  <si>
+    <t>liston4lyfe@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ankita M Gadre</t>
+  </si>
+  <si>
+    <t>ankitagadre18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Bhumi Shashikant Lotankar</t>
+  </si>
+  <si>
+    <t>thecodecipherr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
   </si>
   <si>
-    <t>Vaishnavi Sawant</t>
-  </si>
-  <si>
-    <t>vaishnavi31272@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shaun Rodrigues</t>
-  </si>
-  <si>
-    <t>shaunrodrigues4321@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
   </si>
   <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
-    <t>Liston D'souza</t>
-  </si>
-  <si>
-    <t>liston4lyfe@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ankita M Gadre</t>
-  </si>
-  <si>
-    <t>ankitagadre18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game]</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Bhumi Shashikant Lotankar</t>
-  </si>
-  <si>
-    <t>thecodecipherr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
-  </si>
-  <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
   </si>
   <si>
     <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
   </si>
   <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
-    <t>Keshav Prajapati</t>
-  </si>
-  <si>
-    <t>kpcode3105@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
-  </si>
-  <si>
-    <t>Anurag Ajit Bhide</t>
-  </si>
-  <si>
-    <t>anuragbhide0906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
-  </si>
-  <si>
-    <t>Dylan Noronha</t>
-  </si>
-  <si>
-    <t>dylannoronha80@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
-  </si>
-  <si>
-    <t>Saksham Sanjay Patil</t>
-  </si>
-  <si>
-    <t>patilsaksham7890@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
-  </si>
-  <si>
-    <t>Dev Dominic</t>
-  </si>
-  <si>
-    <t>dominicdev2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
-  </si>
-  <si>
-    <t>Prasad Atmaram Shinde</t>
-  </si>
-  <si>
-    <t>prasadshinde0019@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
-  </si>
-  <si>
-    <t>Trisha Joy Alappat</t>
-  </si>
-  <si>
-    <t>trishaalappat@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
-  </si>
-  <si>
     <t>Jay Sandeep Shinde</t>
   </si>
   <si>
@@ -1675,9 +1675,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Kaustubh Pankaj Gund</t>
   </si>
   <si>
@@ -1696,7 +1693,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
   </si>
   <si>
     <t>Prasad Subhedar</t>
@@ -1858,7 +1855,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t>Kuthokathan Alister Varghese</t>
@@ -2119,7 +2116,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/69a682ce-5f86-49ea-8069-5d69fcd3a268</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>Nicole Pereira</t>
@@ -2237,6 +2234,9 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/2a11032d-f07c-47ed-b6b5-9543f1b0d851</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2602,15 +2602,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -2680,7 +2680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2708,8 +2708,11 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
@@ -2741,7 +2744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>29</v>
@@ -2773,7 +2776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2793,27 +2796,30 @@
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -2828,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2837,15 +2843,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -2860,19 +2866,19 @@
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>47</v>
@@ -2904,7 +2910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2927,40 +2933,40 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -3026,13 +3032,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3061,13 +3067,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -3118,28 +3124,28 @@
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>73</v>
+      <c r="I16" s="1">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3154,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3165,13 +3171,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -3186,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3197,13 +3203,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3218,13 +3224,13 @@
         <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
         <v>43</v>
@@ -3232,13 +3238,13 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3261,13 +3267,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -3290,14 +3296,14 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
@@ -3308,10 +3314,10 @@
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3322,13 +3328,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -3351,13 +3357,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -3372,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -3383,13 +3389,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3404,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3415,13 +3421,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -3436,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3447,13 +3453,13 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -3468,13 +3474,13 @@
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
         <v>18</v>
@@ -3482,13 +3488,13 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -3503,13 +3509,13 @@
         <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>
@@ -3517,13 +3523,13 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -3538,13 +3544,13 @@
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
         <v>18</v>
@@ -3552,28 +3558,28 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -3584,13 +3590,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3605,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3616,13 +3622,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3637,13 +3643,13 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
         <v>18</v>
@@ -3651,13 +3657,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3672,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3683,13 +3689,13 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3704,7 +3710,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -3715,13 +3721,13 @@
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3736,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3747,13 +3753,13 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3776,13 +3782,13 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -3797,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3808,13 +3814,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3837,28 +3843,28 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3869,13 +3875,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3898,25 +3904,28 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
         <v>162</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3948,13 +3957,13 @@
         <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
         <v>43</v>
@@ -4009,30 +4018,30 @@
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4055,13 +4064,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4076,13 +4085,13 @@
         <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
         <v>43</v>
@@ -4093,14 +4102,14 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
@@ -4111,10 +4120,10 @@
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4125,14 +4134,14 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
@@ -4143,10 +4152,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -4157,13 +4166,13 @@
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4178,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4189,34 +4198,34 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1">
-        <v>10</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s">
         <v>18</v>
@@ -4224,13 +4233,13 @@
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4253,13 +4262,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4274,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4285,13 +4294,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4306,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -4317,13 +4326,13 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -4338,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -4349,13 +4358,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4370,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4381,13 +4390,13 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -4399,10 +4408,10 @@
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4413,13 +4422,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4431,10 +4440,10 @@
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4445,13 +4454,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4466,13 +4475,13 @@
         <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s">
         <v>43</v>
@@ -4480,13 +4489,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4509,13 +4518,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4530,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4541,13 +4550,13 @@
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4562,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4573,13 +4582,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4602,13 +4611,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4631,13 +4640,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4660,13 +4669,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4689,13 +4698,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4718,13 +4727,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4747,13 +4756,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4776,13 +4785,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -4805,13 +4814,13 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -4823,10 +4832,10 @@
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4837,13 +4846,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4866,13 +4875,13 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -4895,13 +4904,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -4916,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -4927,13 +4936,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -4948,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -4959,13 +4968,13 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -4980,7 +4989,7 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -4991,13 +5000,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -5012,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -5023,13 +5032,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5047,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K77" t="s">
         <v>18</v>
@@ -5055,13 +5064,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5084,13 +5093,13 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
@@ -5113,13 +5122,13 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -5134,7 +5143,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -5145,13 +5154,13 @@
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5174,13 +5183,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5203,13 +5212,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5227,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K83" t="s">
         <v>18</v>
@@ -5235,13 +5244,13 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -5256,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -5267,13 +5276,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5296,13 +5305,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5325,13 +5334,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5354,13 +5363,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5383,13 +5392,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5404,13 +5413,13 @@
         <v>19</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K89" t="s">
         <v>43</v>
@@ -5418,13 +5427,13 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5447,14 +5456,14 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
@@ -5465,16 +5474,16 @@
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="I91" s="1">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K91" t="s">
         <v>18</v>
@@ -5482,34 +5491,34 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="1">
+        <v>12</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="1">
-        <v>11</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K92" t="s">
         <v>18</v>
@@ -5517,13 +5526,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5546,13 +5555,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5575,13 +5584,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5604,13 +5613,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5633,13 +5642,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5662,14 +5671,14 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
@@ -5680,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K98" t="s">
         <v>18</v>
@@ -5697,13 +5706,13 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -5718,7 +5727,7 @@
         <v>9</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -5729,13 +5738,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -5750,7 +5759,7 @@
         <v>9</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -5761,13 +5770,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5790,13 +5799,13 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -5811,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5822,57 +5831,57 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0</v>
+      <c r="I103" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="K103" t="s">
-        <v>18</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="1">
+        <v>6</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="1">
-        <v>4</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -5883,13 +5892,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -5912,13 +5921,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -5941,13 +5950,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -5970,13 +5979,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -5999,25 +6008,28 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
         <v>381</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -6046,10 +6058,10 @@
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>385</v>
+        <v>54</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -6060,13 +6072,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6081,7 +6093,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -6092,13 +6104,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6121,13 +6133,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6150,13 +6162,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6179,13 +6191,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6200,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6211,13 +6223,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6232,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6243,13 +6255,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6264,13 +6276,13 @@
         <v>13</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K117" t="s">
         <v>18</v>
@@ -6278,13 +6290,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6307,13 +6319,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6328,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -6339,13 +6351,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6368,28 +6380,28 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="1">
+        <v>14</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="1">
-        <v>11</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -6400,13 +6412,13 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6421,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>156</v>
+        <v>424</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -6624,7 +6636,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>131</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -6743,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6801,7 +6816,7 @@
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>464</v>
@@ -6836,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6894,7 +6909,7 @@
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>474</v>
@@ -6987,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7016,10 +7031,10 @@
         <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7106,30 +7121,30 @@
         <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>496</v>
+        <v>42</v>
       </c>
       <c r="I145" s="1">
         <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K145" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7152,13 +7167,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7173,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -7184,13 +7199,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7213,13 +7228,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7242,13 +7257,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7271,14 +7286,14 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
       </c>
@@ -7289,7 +7304,10 @@
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>69</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7300,14 +7318,14 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
       </c>
@@ -7318,10 +7336,10 @@
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I152" s="1">
         <v>0</v>
@@ -7332,13 +7350,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7361,13 +7379,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7390,14 +7408,14 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
       </c>
@@ -7408,16 +7426,16 @@
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>200</v>
+        <v>464</v>
       </c>
       <c r="I155" s="1">
         <v>1</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K155" t="s">
         <v>18</v>
@@ -7425,13 +7443,13 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7454,13 +7472,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7483,13 +7501,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7504,13 +7522,13 @@
         <v>4</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I158" s="1">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K158" t="s">
         <v>18</v>
@@ -7518,14 +7536,14 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
       </c>
@@ -7536,7 +7554,10 @@
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>357</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -7547,13 +7568,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7576,13 +7597,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7605,13 +7626,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7626,13 +7647,13 @@
         <v>10</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>193</v>
+        <v>547</v>
       </c>
       <c r="I162" s="1">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K162" t="s">
         <v>18</v>
@@ -7658,10 +7679,10 @@
         <v>16</v>
       </c>
       <c r="G163" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>551</v>
+        <v>54</v>
       </c>
       <c r="I163" s="1">
         <v>0</v>
@@ -7672,13 +7693,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7701,31 +7722,34 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1">
+        <v>8</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" s="1">
-        <v>7</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="I165" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>34</v>
       </c>
       <c r="K165" t="s">
         <v>18</v>
@@ -7733,13 +7757,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7762,13 +7786,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7791,13 +7815,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7812,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -7823,13 +7847,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -7844,13 +7868,13 @@
         <v>3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K169" t="s">
         <v>18</v>
@@ -7858,13 +7882,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -7887,13 +7911,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -7916,13 +7940,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -7948,10 +7972,10 @@
         <v>58</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -7974,13 +7998,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8003,13 +8027,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8024,7 +8048,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8035,13 +8059,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8064,13 +8088,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8093,13 +8117,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8122,13 +8146,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8151,14 +8175,14 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
       </c>
@@ -8169,7 +8193,10 @@
         <v>16</v>
       </c>
       <c r="G180" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H180" t="s">
+        <v>81</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -8180,13 +8207,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8209,13 +8236,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8238,34 +8265,34 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="1">
+        <v>9</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" s="1">
-        <v>7</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K183" t="s">
         <v>18</v>
@@ -8273,13 +8300,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8302,13 +8329,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8331,13 +8358,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8360,13 +8387,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8389,13 +8416,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8418,13 +8445,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8447,13 +8474,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8468,7 +8495,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -8479,13 +8506,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8508,13 +8535,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8540,11 +8567,11 @@
         <v>66</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
       </c>
@@ -8555,10 +8582,10 @@
         <v>16</v>
       </c>
       <c r="G193" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="I193" s="1">
         <v>0</v>
@@ -8569,13 +8596,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8598,13 +8625,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8627,13 +8654,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8656,13 +8683,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8685,13 +8712,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8714,13 +8741,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8735,13 +8762,13 @@
         <v>19</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I199" s="1">
         <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K199" t="s">
         <v>43</v>
@@ -8749,13 +8776,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8778,13 +8805,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -8807,14 +8834,14 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
       </c>
@@ -8825,10 +8852,10 @@
         <v>16</v>
       </c>
       <c r="G202" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I202" s="1">
         <v>0</v>
@@ -8839,13 +8866,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -8868,13 +8895,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -8897,13 +8924,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -8926,13 +8953,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -8955,13 +8982,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -8984,13 +9011,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9013,13 +9040,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9042,13 +9069,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9071,13 +9098,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9100,28 +9127,28 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="1">
+        <v>4</v>
+      </c>
+      <c r="H212" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" s="1">
-        <v>3</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -9132,13 +9159,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9161,13 +9188,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9190,13 +9217,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9219,13 +9246,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9248,13 +9275,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9277,13 +9304,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9306,13 +9333,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9335,13 +9362,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9364,13 +9391,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9393,13 +9420,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9422,13 +9449,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9451,13 +9478,13 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
@@ -9472,13 +9499,13 @@
         <v>6</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K224" t="s">
         <v>18</v>
@@ -9486,13 +9513,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A863BF-E050-45A0-A9E7-C642AF446BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B536074-ABF6-4024-8327-F3A3AC3E224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="737">
   <si>
     <t>User Name</t>
   </si>
@@ -121,7 +121,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Level 3: Generative AI [Game]</t>
@@ -163,1626 +163,1617 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
   </si>
   <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
   </si>
   <si>
     <t>Get Started with Cloud Storage [Skill Badge]</t>
   </si>
   <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
+  </si>
+  <si>
+    <t>Jay Sandeep Shinde</t>
+  </si>
+  <si>
+    <t>jayshindee.111@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
+  </si>
+  <si>
+    <t>Kaustubh Pankaj Gund</t>
+  </si>
+  <si>
+    <t>gundkaustubh33@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
+  </si>
+  <si>
+    <t>Jayita Mrityunjoy Chakraborty</t>
+  </si>
+  <si>
+    <t>jayic1707@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
+  </si>
+  <si>
+    <t>Prasad Subhedar</t>
+  </si>
+  <si>
+    <t>progdev25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
+  </si>
+  <si>
+    <t>Smrutishree</t>
+  </si>
+  <si>
+    <t>smrutee2029@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
+  </si>
+  <si>
+    <t>Harshita Vinod Vyas</t>
+  </si>
+  <si>
+    <t>harshitavyas1106@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
+  </si>
+  <si>
+    <t>Gargi Prakash Shringare</t>
+  </si>
+  <si>
+    <t>gargishringare086@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
+  </si>
+  <si>
+    <t>Neville Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza18neville@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
+  </si>
+  <si>
+    <t>Sharon Louis</t>
+  </si>
+  <si>
+    <t>louis.sharon197@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
+  </si>
+  <si>
+    <t>Vedant Apraj</t>
+  </si>
+  <si>
+    <t>vedantapraj5125@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
+  </si>
+  <si>
+    <t>anushagupta1375@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
+  </si>
+  <si>
+    <t>Hazel Joy</t>
+  </si>
+  <si>
+    <t>tinywrathbb1403@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
+  </si>
+  <si>
+    <t>Aayush Pulkundwar</t>
+  </si>
+  <si>
+    <t>pulkundwaraayushh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
   </si>
   <si>
     <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
-    <t>Keshav Prajapati</t>
-  </si>
-  <si>
-    <t>kpcode3105@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
-  </si>
-  <si>
-    <t>Anurag Ajit Bhide</t>
-  </si>
-  <si>
-    <t>anuragbhide0906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
-  </si>
-  <si>
-    <t>Dylan Noronha</t>
-  </si>
-  <si>
-    <t>dylannoronha80@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
-  </si>
-  <si>
-    <t>Saksham Sanjay Patil</t>
-  </si>
-  <si>
-    <t>patilsaksham7890@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
-  </si>
-  <si>
-    <t>Dev Dominic</t>
-  </si>
-  <si>
-    <t>dominicdev2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
-  </si>
-  <si>
-    <t>Prasad Atmaram Shinde</t>
-  </si>
-  <si>
-    <t>prasadshinde0019@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
-  </si>
-  <si>
-    <t>Trisha Joy Alappat</t>
-  </si>
-  <si>
-    <t>trishaalappat@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jay Sandeep Shinde</t>
-  </si>
-  <si>
-    <t>jayshindee.111@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
-  </si>
-  <si>
-    <t>Kaustubh Pankaj Gund</t>
-  </si>
-  <si>
-    <t>gundkaustubh33@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
-  </si>
-  <si>
-    <t>Jayita Mrityunjoy Chakraborty</t>
-  </si>
-  <si>
-    <t>jayic1707@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prasad Subhedar</t>
-  </si>
-  <si>
-    <t>progdev25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
-  </si>
-  <si>
-    <t>Smrutishree</t>
-  </si>
-  <si>
-    <t>smrutee2029@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
-  </si>
-  <si>
-    <t>Harshita Vinod Vyas</t>
-  </si>
-  <si>
-    <t>harshitavyas1106@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
-  </si>
-  <si>
-    <t>Gargi Prakash Shringare</t>
-  </si>
-  <si>
-    <t>gargishringare086@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
-  </si>
-  <si>
-    <t>Neville Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza18neville@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
-  </si>
-  <si>
-    <t>Sharon Louis</t>
-  </si>
-  <si>
-    <t>louis.sharon197@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
-  </si>
-  <si>
-    <t>Vedant Apraj</t>
-  </si>
-  <si>
-    <t>vedantapraj5125@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
-  </si>
-  <si>
-    <t>anushagupta1375@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
-  </si>
-  <si>
-    <t>Hazel Joy</t>
-  </si>
-  <si>
-    <t>tinywrathbb1403@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
-  </si>
-  <si>
-    <t>Aayush Pulkundwar</t>
-  </si>
-  <si>
-    <t>pulkundwaraayushh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
-  </si>
-  <si>
     <t>Kenneth Ornello</t>
   </si>
   <si>
@@ -1855,7 +1846,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Kuthokathan Alister Varghese</t>
@@ -1939,12 +1930,18 @@
     <t>https://www.cloudskillsboost.google/public_profiles/7c0b1d7e-9a24-405f-af4b-1df9495668f8</t>
   </si>
   <si>
+    <t>Jaeden Lourenco pereira</t>
+  </si>
+  <si>
     <t>sayedasma687@gmail.com</t>
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/6e646b85-03a7-4dce-8b62-733ef319e2e3</t>
   </si>
   <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Harshali Gokhale</t>
   </si>
   <si>
@@ -2116,7 +2113,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/69a682ce-5f86-49ea-8069-5d69fcd3a268</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Nicole Pereira</t>
@@ -2234,9 +2231,6 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/2a11032d-f07c-47ed-b6b5-9543f1b0d851</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2602,15 +2596,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2641,14 +2635,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2708,11 +2702,8 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2744,7 +2735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2776,7 +2767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2796,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>33</v>
@@ -2811,7 +2802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2843,7 +2834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2878,7 +2869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -2898,43 +2889,43 @@
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
@@ -2942,7 +2933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -2965,53 +2956,53 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -3026,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -3038,30 +3029,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -3073,62 +3064,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3139,13 +3130,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3160,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3171,13 +3162,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -3192,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3203,13 +3194,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3238,13 +3229,13 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3267,13 +3258,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -3296,13 +3287,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -3317,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3328,13 +3319,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -3357,13 +3348,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -3378,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -3389,13 +3380,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3410,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3421,13 +3412,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -3442,7 +3433,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3453,13 +3444,13 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -3474,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -3488,14 +3479,14 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
@@ -3506,16 +3497,16 @@
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>
@@ -3523,13 +3514,13 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -3544,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -3558,14 +3549,14 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
@@ -3576,27 +3567,30 @@
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3611,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3622,13 +3616,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3643,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -3657,13 +3651,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3678,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3689,31 +3683,34 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
       </c>
       <c r="K34" t="s">
         <v>18</v>
@@ -3721,13 +3718,13 @@
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3742,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3753,13 +3750,13 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3782,28 +3779,28 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>9</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3814,13 +3811,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3843,13 +3840,13 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -3864,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3875,13 +3872,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3904,13 +3901,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3925,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3936,13 +3933,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -3971,13 +3968,13 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -4000,13 +3997,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4035,13 +4032,13 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4064,13 +4061,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4102,13 +4099,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -4123,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4134,13 +4131,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4152,10 +4149,10 @@
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -4166,13 +4163,13 @@
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4187,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4198,13 +4195,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4216,10 +4213,10 @@
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -4228,18 +4225,18 @@
         <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4262,13 +4259,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4283,7 +4280,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4294,13 +4291,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4312,10 +4309,10 @@
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -4326,13 +4323,13 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -4347,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -4358,13 +4355,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4379,7 +4376,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4390,13 +4387,13 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -4408,10 +4405,10 @@
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4422,13 +4419,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4454,13 +4451,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4489,13 +4486,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4518,13 +4515,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4539,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4550,13 +4547,13 @@
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4571,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4582,13 +4579,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4611,13 +4608,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4640,13 +4637,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4669,13 +4666,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4698,13 +4695,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4727,13 +4724,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4756,13 +4753,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4785,13 +4782,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -4814,13 +4811,13 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -4835,7 +4832,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4846,13 +4843,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4875,13 +4872,13 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -4904,13 +4901,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -4925,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -4936,13 +4933,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -4957,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -4968,13 +4965,13 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -4989,7 +4986,7 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -5000,28 +4997,28 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
         <v>271</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>274</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -5032,13 +5029,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5050,7 +5047,10 @@
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>220</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -5064,13 +5064,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5093,25 +5093,28 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
         <v>281</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -5122,13 +5125,13 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -5143,7 +5146,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -5154,13 +5157,13 @@
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5183,13 +5186,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5212,13 +5215,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5244,13 +5247,13 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -5265,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -5276,13 +5279,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5305,13 +5308,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5334,13 +5337,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5363,13 +5366,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5392,13 +5395,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5427,13 +5430,13 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5456,34 +5459,34 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="1">
+        <v>12</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="1">
-        <v>9</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="I91" s="1">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K91" t="s">
         <v>18</v>
@@ -5491,13 +5494,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5512,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -5526,13 +5529,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5555,13 +5558,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5584,13 +5587,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5613,13 +5616,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5642,13 +5645,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5671,13 +5674,13 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -5692,7 +5695,7 @@
         <v>9</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
@@ -5706,28 +5709,28 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="1">
+        <v>11</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="1">
-        <v>9</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -5738,28 +5741,28 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="1">
+        <v>18</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="1">
-        <v>9</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -5770,13 +5773,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5799,14 +5802,14 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
@@ -5817,10 +5820,10 @@
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5831,42 +5834,45 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
         <v>359</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>361</v>
+      <c r="I103" s="1">
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>361</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
@@ -5881,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -5892,13 +5898,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -5921,13 +5927,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -5950,25 +5956,28 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
         <v>373</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -5979,13 +5988,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6008,28 +6017,28 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
         <v>380</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="1">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>381</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -6040,13 +6049,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6061,7 +6070,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -6072,13 +6081,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6093,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -6104,13 +6113,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6133,13 +6142,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6162,13 +6171,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6191,13 +6200,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6212,7 +6221,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6223,13 +6232,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6244,7 +6253,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6255,13 +6264,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6276,7 +6285,7 @@
         <v>13</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -6290,13 +6299,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6319,13 +6328,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6340,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -6351,13 +6360,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6380,14 +6389,14 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
       </c>
@@ -6398,27 +6407,30 @@
         <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>34</v>
       </c>
       <c r="K121" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6433,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -6444,13 +6456,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6473,13 +6485,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6502,13 +6514,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6531,13 +6543,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -6560,13 +6572,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6589,13 +6601,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6618,13 +6630,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6636,10 +6648,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -6650,13 +6662,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6679,13 +6691,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6708,13 +6720,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6737,13 +6749,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6758,7 +6770,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6769,13 +6781,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6798,13 +6810,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6819,7 +6831,7 @@
         <v>13</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -6830,13 +6842,13 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -6851,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6862,13 +6874,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -6891,13 +6903,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -6909,10 +6921,10 @@
         <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>474</v>
+        <v>42</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
@@ -6923,13 +6935,13 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -6952,13 +6964,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -6981,13 +6993,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7002,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7013,13 +7025,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7034,7 +7046,7 @@
         <v>5</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7045,13 +7057,13 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -7063,7 +7075,10 @@
         <v>16</v>
       </c>
       <c r="G143" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>159</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
@@ -7074,13 +7089,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7103,13 +7118,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7138,13 +7153,13 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7167,13 +7182,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7188,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -7199,13 +7214,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7228,13 +7243,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7257,13 +7272,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7275,7 +7290,10 @@
         <v>16</v>
       </c>
       <c r="G150" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>159</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -7286,13 +7304,13 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7304,10 +7322,10 @@
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>69</v>
+        <v>359</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7318,13 +7336,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7336,13 +7354,16 @@
         <v>16</v>
       </c>
       <c r="G152" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>54</v>
+        <v>513</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>34</v>
       </c>
       <c r="K152" t="s">
         <v>18</v>
@@ -7350,13 +7371,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7379,13 +7400,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7408,13 +7429,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7426,10 +7447,10 @@
         <v>16</v>
       </c>
       <c r="G155" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>464</v>
+        <v>42</v>
       </c>
       <c r="I155" s="1">
         <v>1</v>
@@ -7438,18 +7459,18 @@
         <v>34</v>
       </c>
       <c r="K155" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7472,13 +7493,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7501,28 +7522,28 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="1">
+        <v>8</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" s="1">
-        <v>4</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I158" s="1">
         <v>1</v>
@@ -7536,14 +7557,14 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
       </c>
@@ -7554,10 +7575,10 @@
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H159" t="s">
-        <v>357</v>
+        <v>118</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -7568,13 +7589,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7597,13 +7618,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7626,14 +7647,14 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
       </c>
@@ -7644,10 +7665,10 @@
         <v>16</v>
       </c>
       <c r="G162" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="I162" s="1">
         <v>1</v>
@@ -7656,18 +7677,18 @@
         <v>34</v>
       </c>
       <c r="K162" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7682,10 +7703,13 @@
         <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I163" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>34</v>
       </c>
       <c r="K163" t="s">
         <v>18</v>
@@ -7693,13 +7717,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7722,13 +7746,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7740,10 +7764,10 @@
         <v>16</v>
       </c>
       <c r="G165" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>557</v>
+        <v>33</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
@@ -7757,13 +7781,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7786,13 +7810,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7815,13 +7839,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7836,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -7847,13 +7871,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -7868,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -7882,13 +7906,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -7911,13 +7935,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -7940,13 +7964,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -7969,13 +7993,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -7998,13 +8022,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8027,13 +8051,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8048,7 +8072,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>148</v>
+        <v>583</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8059,13 +8083,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8088,13 +8112,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8117,13 +8141,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8146,13 +8170,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8175,13 +8199,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8193,10 +8217,10 @@
         <v>16</v>
       </c>
       <c r="G180" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -8207,13 +8231,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8236,13 +8260,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8265,28 +8289,28 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="1">
+        <v>16</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" s="1">
-        <v>9</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
@@ -8300,13 +8324,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8329,13 +8353,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8358,13 +8382,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8387,13 +8411,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8416,13 +8440,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8445,13 +8469,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8466,7 +8490,10 @@
         <v>0</v>
       </c>
       <c r="I189" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>34</v>
       </c>
       <c r="K189" t="s">
         <v>18</v>
@@ -8474,13 +8501,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8495,7 +8522,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -8506,13 +8533,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8535,13 +8562,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8564,31 +8591,34 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>66</v>
+        <v>636</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="1">
+        <v>18</v>
+      </c>
+      <c r="H193" t="s">
         <v>639</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" s="1">
-        <v>3</v>
-      </c>
-      <c r="H193" t="s">
-        <v>155</v>
-      </c>
       <c r="I193" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>34</v>
       </c>
       <c r="K193" t="s">
         <v>18</v>
@@ -8596,13 +8626,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8625,13 +8655,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8654,13 +8684,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8683,13 +8713,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8712,13 +8742,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8741,13 +8771,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8776,13 +8806,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8805,13 +8835,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -8834,13 +8864,13 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
@@ -8855,7 +8885,7 @@
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I202" s="1">
         <v>0</v>
@@ -8866,13 +8896,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -8895,13 +8925,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -8924,13 +8954,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -8953,13 +8983,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -8982,13 +9012,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9011,13 +9041,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9040,13 +9070,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9069,13 +9099,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9098,13 +9128,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9127,28 +9157,28 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="1">
+        <v>8</v>
+      </c>
+      <c r="H212" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" s="1">
-        <v>4</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -9159,13 +9189,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9188,13 +9218,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9217,13 +9247,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9246,13 +9276,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9275,13 +9305,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9304,13 +9334,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9333,13 +9363,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9362,13 +9392,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9391,13 +9421,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9420,13 +9450,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9449,13 +9479,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9478,14 +9508,14 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
       </c>
@@ -9496,10 +9526,10 @@
         <v>16</v>
       </c>
       <c r="G224" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>38</v>
+        <v>697</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
@@ -9513,13 +9543,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B536074-ABF6-4024-8327-F3A3AC3E224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E821131-221A-46F0-A197-A61ED56F1F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="738">
   <si>
     <t>User Name</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Names of Completed Arcade Games</t>
   </si>
   <si>
+    <t>Eligible for Goodies</t>
+  </si>
+  <si>
     <t>eligibleforgoodies</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>Vaishnavi Sawant</t>
@@ -136,525 +139,525 @@
     <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ankita M Gadre</t>
+  </si>
+  <si>
+    <t>ankitagadre18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Bhumi Shashikant Lotankar</t>
+  </si>
+  <si>
+    <t>thecodecipherr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Ankita M Gadre</t>
-  </si>
-  <si>
-    <t>ankitagadre18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Bhumi Shashikant Lotankar</t>
-  </si>
-  <si>
-    <t>thecodecipherr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
-  </si>
-  <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
-  </si>
-  <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
-  </si>
-  <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
     <t>Isha Sairaj Samant</t>
   </si>
   <si>
@@ -712,6 +715,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
     <t>Dannish Bhardwaj</t>
   </si>
   <si>
@@ -823,9 +829,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Yash Sanjay</t>
   </si>
   <si>
@@ -835,7 +838,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>Yashica Borkar</t>
@@ -865,9 +868,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
     <t>Navya Vinod Nair</t>
   </si>
   <si>
@@ -913,6 +913,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
     <t>Hardik Khare</t>
   </si>
   <si>
@@ -976,7 +979,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
@@ -1057,7 +1060,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t>Madhura Sunil Kedar</t>
@@ -1141,153 +1144,153 @@
     <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
   </si>
   <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
     <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
     <t>Ritesh Kode</t>
   </si>
   <si>
@@ -1351,6 +1354,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Atharva jahagirdar</t>
   </si>
   <si>
@@ -1405,9 +1411,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Bhumika Patil</t>
   </si>
   <si>
@@ -1543,6 +1546,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Samara Nazareth</t>
   </si>
   <si>
@@ -1561,7 +1567,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Varnavi Nandkumar Patil</t>
@@ -1771,9 +1777,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Kenneth Ornello</t>
   </si>
   <si>
@@ -1846,7 +1849,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Kuthokathan Alister Varghese</t>
@@ -2598,8 +2601,8 @@
   </sheetPr>
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2635,63 +2638,63 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2700,289 +2703,289 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2991,260 +2994,260 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1">
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1">
         <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3253,27 +3256,27 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3282,59 +3285,59 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -3343,429 +3346,429 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1">
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1">
         <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1">
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1">
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1">
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1">
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -3774,59 +3777,59 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -3835,59 +3838,59 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1">
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3896,94 +3899,94 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1">
         <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -3992,62 +3995,62 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1">
         <v>19</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -4056,42 +4059,42 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G46" s="1">
         <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -4099,153 +4102,153 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" s="1">
         <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
         <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" s="1">
         <v>6</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" s="1">
         <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -4254,39 +4257,39 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="1">
         <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4300,25 +4303,25 @@
         <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" s="1">
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4332,25 +4335,25 @@
         <v>200</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4364,25 +4367,25 @@
         <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55" s="1">
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4396,13 +4399,13 @@
         <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G56" s="1">
         <v>8</v>
@@ -4414,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4428,80 +4431,80 @@
         <v>210</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G57" s="1">
         <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" s="1">
         <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -4510,91 +4513,91 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" s="1">
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -4603,56 +4606,59 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>231</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -4661,27 +4667,27 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -4690,27 +4696,27 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -4719,27 +4725,27 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -4748,27 +4754,27 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -4777,27 +4783,27 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -4806,59 +4812,59 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -4867,27 +4873,27 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -4896,190 +4902,190 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" s="1">
         <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="1">
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G75" s="1">
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G76" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" s="1">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
@@ -5088,39 +5094,39 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,25 +5140,25 @@
         <v>284</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G80" s="1">
         <v>5</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5166,13 +5172,13 @@
         <v>287</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -5181,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5195,13 +5201,13 @@
         <v>290</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -5210,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5224,13 +5230,13 @@
         <v>293</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -5239,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5256,74 +5262,80 @@
         <v>296</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G84" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>231</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>35</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -5332,27 +5344,27 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -5361,27 +5373,27 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
@@ -5390,62 +5402,62 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G89" s="1">
         <v>19</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
@@ -5454,97 +5466,97 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G91" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I91" s="1">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>319</v>
-      </c>
-      <c r="K91" t="s">
-        <v>18</v>
+        <v>320</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G92" s="1">
         <v>12</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
@@ -5553,27 +5565,27 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G94" s="1">
         <v>0</v>
@@ -5582,27 +5594,27 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
@@ -5611,27 +5623,27 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
@@ -5640,27 +5652,27 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -5669,126 +5681,126 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G98" s="1">
         <v>9</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G99" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G100" s="1">
         <v>18</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
@@ -5797,123 +5809,123 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G103" s="1">
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="1">
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
@@ -5922,27 +5934,27 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
@@ -5951,39 +5963,39 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G107" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>373</v>
+        <v>130</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5997,13 +6009,13 @@
         <v>376</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G108" s="1">
         <v>0</v>
@@ -6012,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,13 +6038,13 @@
         <v>379</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G109" s="1">
         <v>2</v>
@@ -6044,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6058,25 +6070,25 @@
         <v>383</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110" s="1">
         <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6090,13 +6102,13 @@
         <v>386</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G111" s="1">
         <v>3</v>
@@ -6108,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6122,13 +6134,13 @@
         <v>390</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G112" s="1">
         <v>0</v>
@@ -6137,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6151,13 +6163,13 @@
         <v>393</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G113" s="1">
         <v>0</v>
@@ -6166,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6180,13 +6192,13 @@
         <v>396</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
@@ -6195,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6209,25 +6221,25 @@
         <v>399</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G115" s="1">
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6241,25 +6253,25 @@
         <v>402</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G116" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6273,13 +6285,13 @@
         <v>405</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G117" s="1">
         <v>13</v>
@@ -6291,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6308,13 +6320,13 @@
         <v>409</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G118" s="1">
         <v>0</v>
@@ -6323,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6337,25 +6349,25 @@
         <v>412</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G119" s="1">
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6369,13 +6381,13 @@
         <v>415</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
@@ -6384,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6398,28 +6410,28 @@
         <v>418</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G121" s="1">
         <v>19</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I121" s="1">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6433,45 +6445,45 @@
         <v>421</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G122" s="1">
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
@@ -6480,27 +6492,27 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G124" s="1">
         <v>0</v>
@@ -6509,27 +6521,27 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G125" s="1">
         <v>0</v>
@@ -6538,27 +6550,27 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G126" s="1">
         <v>0</v>
@@ -6567,27 +6579,27 @@
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G127" s="1">
         <v>0</v>
@@ -6596,27 +6608,27 @@
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -6625,59 +6637,59 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G129" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
@@ -6686,27 +6698,27 @@
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G131" s="1">
         <v>0</v>
@@ -6715,27 +6727,27 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G132" s="1">
         <v>0</v>
@@ -6744,59 +6756,59 @@
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G133" s="1">
         <v>3</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
@@ -6805,91 +6817,91 @@
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G135" s="1">
         <v>13</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G137" s="1">
         <v>0</v>
@@ -6898,59 +6910,59 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G138" s="1">
         <v>19</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G139" s="1">
         <v>0</v>
@@ -6959,27 +6971,27 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -6988,123 +7000,126 @@
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G142" s="1">
         <v>5</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I143" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>35</v>
       </c>
       <c r="K143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G144" s="1">
         <v>0</v>
@@ -7113,62 +7128,62 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G145" s="1">
         <v>19</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I145" s="1">
         <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G146" s="1">
         <v>0</v>
@@ -7177,59 +7192,59 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G147" s="1">
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G148" s="1">
         <v>0</v>
@@ -7238,27 +7253,27 @@
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G149" s="1">
         <v>0</v>
@@ -7267,126 +7282,126 @@
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G150" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>159</v>
+        <v>508</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G151" s="1">
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G152" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H152" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I152" s="1">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G153" s="1">
         <v>0</v>
@@ -7395,27 +7410,27 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G154" s="1">
         <v>0</v>
@@ -7424,62 +7439,62 @@
         <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G155" s="1">
         <v>19</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I155" s="1">
         <v>1</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -7488,27 +7503,27 @@
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G157" s="1">
         <v>0</v>
@@ -7517,94 +7532,94 @@
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G158" s="1">
         <v>8</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I158" s="1">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G159" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G160" s="1">
         <v>0</v>
@@ -7613,27 +7628,27 @@
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G161" s="1">
         <v>0</v>
@@ -7642,97 +7657,97 @@
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G162" s="1">
         <v>19</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I162" s="1">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G163" s="1">
         <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I163" s="1">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G164" s="1">
         <v>0</v>
@@ -7741,62 +7756,62 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G165" s="1">
         <v>10</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G166" s="1">
         <v>0</v>
@@ -7805,27 +7820,27 @@
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G167" s="1">
         <v>0</v>
@@ -7834,94 +7849,94 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G168" s="1">
         <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G169" s="1">
         <v>3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G170" s="1">
         <v>0</v>
@@ -7930,27 +7945,27 @@
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G171" s="1">
         <v>0</v>
@@ -7959,27 +7974,27 @@
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G172" s="1">
         <v>0</v>
@@ -7988,27 +8003,27 @@
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G173" s="1">
         <v>0</v>
@@ -8017,27 +8032,27 @@
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -8046,59 +8061,59 @@
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G175" s="1">
         <v>4</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>583</v>
+        <v>508</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G176" s="1">
         <v>0</v>
@@ -8107,27 +8122,27 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G177" s="1">
         <v>0</v>
@@ -8136,27 +8151,27 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G178" s="1">
         <v>0</v>
@@ -8165,27 +8180,27 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G179" s="1">
         <v>0</v>
@@ -8194,59 +8209,59 @@
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G180" s="1">
         <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G181" s="1">
         <v>0</v>
@@ -8255,27 +8270,27 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G182" s="1">
         <v>0</v>
@@ -8284,62 +8299,62 @@
         <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G183" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K183" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G184" s="1">
         <v>0</v>
@@ -8348,27 +8363,27 @@
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G185" s="1">
         <v>0</v>
@@ -8377,27 +8392,27 @@
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G186" s="1">
         <v>0</v>
@@ -8406,27 +8421,27 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G187" s="1">
         <v>0</v>
@@ -8435,27 +8450,27 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G188" s="1">
         <v>0</v>
@@ -8464,27 +8479,27 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G189" s="1">
         <v>0</v>
@@ -8493,62 +8508,62 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G190" s="1">
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G191" s="1">
         <v>0</v>
@@ -8557,27 +8572,27 @@
         <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -8586,62 +8601,62 @@
         <v>0</v>
       </c>
       <c r="K192" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G193" s="1">
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I193" s="1">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G194" s="1">
         <v>0</v>
@@ -8650,27 +8665,27 @@
         <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G195" s="1">
         <v>0</v>
@@ -8679,27 +8694,27 @@
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -8708,27 +8723,27 @@
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G197" s="1">
         <v>0</v>
@@ -8737,27 +8752,27 @@
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G198" s="1">
         <v>0</v>
@@ -8766,62 +8781,62 @@
         <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G199" s="1">
         <v>19</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I199" s="1">
         <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G200" s="1">
         <v>0</v>
@@ -8830,27 +8845,27 @@
         <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G201" s="1">
         <v>0</v>
@@ -8859,59 +8874,59 @@
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G202" s="1">
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I202" s="1">
         <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G203" s="1">
         <v>0</v>
@@ -8920,27 +8935,27 @@
         <v>0</v>
       </c>
       <c r="K203" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G204" s="1">
         <v>0</v>
@@ -8949,27 +8964,27 @@
         <v>0</v>
       </c>
       <c r="K204" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G205" s="1">
         <v>0</v>
@@ -8978,27 +8993,27 @@
         <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G206" s="1">
         <v>0</v>
@@ -9007,27 +9022,27 @@
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G207" s="1">
         <v>0</v>
@@ -9036,27 +9051,27 @@
         <v>0</v>
       </c>
       <c r="K207" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G208" s="1">
         <v>0</v>
@@ -9065,27 +9080,27 @@
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G209" s="1">
         <v>0</v>
@@ -9094,27 +9109,27 @@
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G210" s="1">
         <v>0</v>
@@ -9123,27 +9138,27 @@
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G211" s="1">
         <v>0</v>
@@ -9152,59 +9167,59 @@
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G212" s="1">
         <v>8</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G213" s="1">
         <v>0</v>
@@ -9213,27 +9228,27 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G214" s="1">
         <v>0</v>
@@ -9242,27 +9257,27 @@
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G215" s="1">
         <v>0</v>
@@ -9271,27 +9286,27 @@
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G216" s="1">
         <v>0</v>
@@ -9300,27 +9315,27 @@
         <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G217" s="1">
         <v>0</v>
@@ -9329,27 +9344,27 @@
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G218" s="1">
         <v>0</v>
@@ -9358,27 +9373,27 @@
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G219" s="1">
         <v>0</v>
@@ -9387,27 +9402,27 @@
         <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G220" s="1">
         <v>0</v>
@@ -9416,27 +9431,27 @@
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G221" s="1">
         <v>0</v>
@@ -9445,27 +9460,27 @@
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G222" s="1">
         <v>0</v>
@@ -9474,27 +9489,27 @@
         <v>0</v>
       </c>
       <c r="K222" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -9503,62 +9518,62 @@
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G224" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>697</v>
+        <v>100</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K224" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G225" s="1">
         <v>0</v>
@@ -9567,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902743C9-0692-48C8-88CB-44BDCC1E4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8D57D-094D-40CF-A8D5-DDA25744B377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="742">
   <si>
     <t>User Name</t>
   </si>
@@ -97,1935 +97,1947 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
   </si>
   <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Vaishnavi Sawant</t>
+  </si>
+  <si>
+    <t>vaishnavi31272@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shaun Rodrigues</t>
+  </si>
+  <si>
+    <t>shaunrodrigues4321@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game]</t>
+  </si>
+  <si>
+    <t>Liston D'souza</t>
+  </si>
+  <si>
+    <t>liston4lyfe@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ankita M Gadre</t>
+  </si>
+  <si>
+    <t>ankitagadre18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Bhumi Shashikant Lotankar</t>
+  </si>
+  <si>
+    <t>thecodecipherr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
+  </si>
+  <si>
+    <t>Jay Sandeep Shinde</t>
+  </si>
+  <si>
+    <t>jayshindee.111@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
+  </si>
+  <si>
+    <t>Kaustubh Pankaj Gund</t>
+  </si>
+  <si>
+    <t>gundkaustubh33@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
+  </si>
+  <si>
+    <t>Jayita Mrityunjoy Chakraborty</t>
+  </si>
+  <si>
+    <t>jayic1707@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
+  </si>
+  <si>
+    <t>Prasad Subhedar</t>
+  </si>
+  <si>
+    <t>progdev25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
+  </si>
+  <si>
+    <t>Smrutishree</t>
+  </si>
+  <si>
+    <t>smrutee2029@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
+  </si>
+  <si>
+    <t>Harshita Vinod Vyas</t>
+  </si>
+  <si>
+    <t>harshitavyas1106@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
+  </si>
+  <si>
+    <t>Gargi Prakash Shringare</t>
+  </si>
+  <si>
+    <t>gargishringare086@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
+  </si>
+  <si>
+    <t>Neville Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza18neville@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
+  </si>
+  <si>
+    <t>Sharon Louis</t>
+  </si>
+  <si>
+    <t>louis.sharon197@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
+  </si>
+  <si>
+    <t>Vedant Apraj</t>
+  </si>
+  <si>
+    <t>vedantapraj5125@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
+  </si>
+  <si>
+    <t>anushagupta1375@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
+  </si>
+  <si>
+    <t>Hazel Joy</t>
+  </si>
+  <si>
+    <t>tinywrathbb1403@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
+  </si>
+  <si>
+    <t>Aayush Pulkundwar</t>
+  </si>
+  <si>
+    <t>pulkundwaraayushh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
+  </si>
+  <si>
+    <t>Kenneth Ornello</t>
+  </si>
+  <si>
+    <t>kennethornelloacm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dadd1943-86cb-42b0-bf76-5dd6187433ec</t>
+  </si>
+  <si>
+    <t>Lester Fernandes</t>
+  </si>
+  <si>
+    <t>lestergdc18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c3861e39-4bad-47e9-a1ca-42896aa537c5</t>
+  </si>
+  <si>
+    <t>SHAUN DSOUZA</t>
+  </si>
+  <si>
+    <t>shaundsouza107@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d8b0f920-971a-4641-af69-126889f19d70</t>
+  </si>
+  <si>
+    <t>Aditya Saji</t>
+  </si>
+  <si>
+    <t>adityasaji005@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6a8a5080-9d6b-42f3-ac8b-31c71c247263</t>
+  </si>
+  <si>
+    <t>Saroj Kumawat</t>
+  </si>
+  <si>
+    <t>sarojkumawat476@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cf3ca54d-b75a-440b-a3f4-56b19c624796</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Riya Sibil</t>
+  </si>
+  <si>
+    <t>riyasibil1501@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/abd83aae-c198-4747-a7ad-8d98b5543ec5</t>
+  </si>
+  <si>
+    <t>Tanmay Tajane</t>
+  </si>
+  <si>
+    <t>tajanetanmay16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/862298dd-a74c-4072-b6be-5866756a528f</t>
+  </si>
+  <si>
+    <t>Bhumi Kadam</t>
+  </si>
+  <si>
+    <t>kbhumii005@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
+  </si>
+  <si>
+    <t>Kuthokathan Alister Varghese</t>
+  </si>
+  <si>
+    <t>alistervarghese10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7e26d127-5dd1-455b-a590-7a00c82a482e</t>
+  </si>
+  <si>
+    <t>Nathan Furtado</t>
+  </si>
+  <si>
+    <t>furtadonathan16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b878b93b-103e-4f52-b048-9d928179c8ff</t>
+  </si>
+  <si>
+    <t>Ashlesha Tambata</t>
+  </si>
+  <si>
+    <t>tambatashlesha16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5a94fd4e-4d32-450f-8abc-9322a7c2ad23</t>
+  </si>
+  <si>
+    <t>Siya Bhutada</t>
+  </si>
+  <si>
+    <t>siyabhutada08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/342f82e9-0cb1-41d7-b747-e2b8a1f12877</t>
+  </si>
+  <si>
+    <t>Soham Datar</t>
+  </si>
+  <si>
+    <t>datarsoham0512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/72dc734e-b7e0-49cd-8575-b68a43847d31</t>
+  </si>
+  <si>
+    <t>Austin Joy</t>
+  </si>
+  <si>
+    <t>kenz0140309@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9ccadff-0fbc-48e8-9f6e-a0fff4a2a624</t>
+  </si>
+  <si>
+    <t>Rohan Jagdale</t>
+  </si>
+  <si>
+    <t>rohanjagdale0905@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e3dd776b-4074-40f2-a3ca-b6747b068779</t>
+  </si>
+  <si>
+    <t>Servesh Khade</t>
+  </si>
+  <si>
+    <t>serveshkhade7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/78ddbe97-b72e-418f-88ed-ead598a56228</t>
+  </si>
+  <si>
+    <t>Pramit Prashant Kulkarni</t>
+  </si>
+  <si>
+    <t>pk5226299@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7c0b1d7e-9a24-405f-af4b-1df9495668f8</t>
+  </si>
+  <si>
+    <t>Jaeden Lourenco pereira</t>
+  </si>
+  <si>
+    <t>sayedasma687@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6e646b85-03a7-4dce-8b62-733ef319e2e3</t>
+  </si>
+  <si>
+    <t>Harshali Gokhale</t>
+  </si>
+  <si>
+    <t>gokhaleharshali23@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9fa3862-30be-4bfe-b1c6-29f9fbeb381f</t>
+  </si>
+  <si>
+    <t>Atharva Khadye</t>
+  </si>
+  <si>
+    <t>atharvakhadyecloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3485a3ac-0e35-4107-913f-afae7e9ed2f4</t>
+  </si>
+  <si>
+    <t>Aditya Vishwakarma</t>
+  </si>
+  <si>
+    <t>workplaceofaditya@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92e53e29-e51e-431d-b40c-8205d0e63c95</t>
+  </si>
+  <si>
+    <t>Vedant Ghuge</t>
+  </si>
+  <si>
+    <t>ghugevedant93@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6e93b21f-f194-4f96-92d6-462700579594</t>
+  </si>
+  <si>
+    <t>Prajyotsna Thiyassheri</t>
+  </si>
+  <si>
+    <t>prajyotsna01@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3fca0a-301a-421b-80e6-1705053a2cc6</t>
+  </si>
+  <si>
+    <t>Vikas Bhagat</t>
+  </si>
+  <si>
+    <t>vikasbh260605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bce40b83-d010-4bac-ab1f-475ffbec284f</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Trivia October 2025 Week 1</t>
+  </si>
+  <si>
+    <t>Crystal Dsouza</t>
+  </si>
+  <si>
+    <t>crystaldsouza900@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cdc8ab52-1673-4519-b917-19e640eba0d1</t>
+  </si>
+  <si>
+    <t>Suhani Raghunandan Rumade</t>
+  </si>
+  <si>
+    <t>iamsweni@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c81a9a80-9744-4f8a-a4b1-4d25e52c153d</t>
+  </si>
+  <si>
+    <t>Ritika Bharat Andhale</t>
+  </si>
+  <si>
+    <t>ritika.180216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f5eac091-24e4-4de4-b53f-3785c54197ce</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
-    <t>Vaishnavi Sawant</t>
-  </si>
-  <si>
-    <t>vaishnavi31272@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shaun Rodrigues</t>
-  </si>
-  <si>
-    <t>shaunrodrigues4321@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game]</t>
-  </si>
-  <si>
-    <t>Liston D'souza</t>
-  </si>
-  <si>
-    <t>liston4lyfe@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ankita M Gadre</t>
-  </si>
-  <si>
-    <t>ankitagadre18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Bhumi Shashikant Lotankar</t>
-  </si>
-  <si>
-    <t>thecodecipherr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
-  </si>
-  <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
-  </si>
-  <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
-    <t>Keshav Prajapati</t>
-  </si>
-  <si>
-    <t>kpcode3105@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
-  </si>
-  <si>
-    <t>Anurag Ajit Bhide</t>
-  </si>
-  <si>
-    <t>anuragbhide0906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
-  </si>
-  <si>
-    <t>Dylan Noronha</t>
-  </si>
-  <si>
-    <t>dylannoronha80@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Saksham Sanjay Patil</t>
-  </si>
-  <si>
-    <t>patilsaksham7890@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
-  </si>
-  <si>
-    <t>Dev Dominic</t>
-  </si>
-  <si>
-    <t>dominicdev2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
-  </si>
-  <si>
-    <t>Prasad Atmaram Shinde</t>
-  </si>
-  <si>
-    <t>prasadshinde0019@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
-  </si>
-  <si>
-    <t>Trisha Joy Alappat</t>
-  </si>
-  <si>
-    <t>trishaalappat@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
-  </si>
-  <si>
-    <t>Jay Sandeep Shinde</t>
-  </si>
-  <si>
-    <t>jayshindee.111@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
-  </si>
-  <si>
-    <t>Kaustubh Pankaj Gund</t>
-  </si>
-  <si>
-    <t>gundkaustubh33@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
-  </si>
-  <si>
-    <t>Jayita Mrityunjoy Chakraborty</t>
-  </si>
-  <si>
-    <t>jayic1707@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
-  </si>
-  <si>
-    <t>Prasad Subhedar</t>
-  </si>
-  <si>
-    <t>progdev25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
-  </si>
-  <si>
-    <t>Smrutishree</t>
-  </si>
-  <si>
-    <t>smrutee2029@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
-  </si>
-  <si>
-    <t>Harshita Vinod Vyas</t>
-  </si>
-  <si>
-    <t>harshitavyas1106@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
-  </si>
-  <si>
-    <t>Gargi Prakash Shringare</t>
-  </si>
-  <si>
-    <t>gargishringare086@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
-  </si>
-  <si>
-    <t>Neville Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza18neville@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
-  </si>
-  <si>
-    <t>Sharon Louis</t>
-  </si>
-  <si>
-    <t>louis.sharon197@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
-  </si>
-  <si>
-    <t>Vedant Apraj</t>
-  </si>
-  <si>
-    <t>vedantapraj5125@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
-  </si>
-  <si>
-    <t>anushagupta1375@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
-  </si>
-  <si>
-    <t>Hazel Joy</t>
-  </si>
-  <si>
-    <t>tinywrathbb1403@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
-  </si>
-  <si>
-    <t>Aayush Pulkundwar</t>
-  </si>
-  <si>
-    <t>pulkundwaraayushh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Kenneth Ornello</t>
-  </si>
-  <si>
-    <t>kennethornelloacm@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dadd1943-86cb-42b0-bf76-5dd6187433ec</t>
-  </si>
-  <si>
-    <t>Lester Fernandes</t>
-  </si>
-  <si>
-    <t>lestergdc18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c3861e39-4bad-47e9-a1ca-42896aa537c5</t>
-  </si>
-  <si>
-    <t>SHAUN DSOUZA</t>
-  </si>
-  <si>
-    <t>shaundsouza107@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d8b0f920-971a-4641-af69-126889f19d70</t>
-  </si>
-  <si>
-    <t>Aditya Saji</t>
-  </si>
-  <si>
-    <t>adityasaji005@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6a8a5080-9d6b-42f3-ac8b-31c71c247263</t>
-  </si>
-  <si>
-    <t>Saroj Kumawat</t>
-  </si>
-  <si>
-    <t>sarojkumawat476@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cf3ca54d-b75a-440b-a3f4-56b19c624796</t>
-  </si>
-  <si>
-    <t>Riya Sibil</t>
-  </si>
-  <si>
-    <t>riyasibil1501@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/abd83aae-c198-4747-a7ad-8d98b5543ec5</t>
-  </si>
-  <si>
-    <t>Tanmay Tajane</t>
-  </si>
-  <si>
-    <t>tajanetanmay16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/862298dd-a74c-4072-b6be-5866756a528f</t>
-  </si>
-  <si>
-    <t>Bhumi Kadam</t>
-  </si>
-  <si>
-    <t>kbhumii005@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
-  </si>
-  <si>
-    <t>Kuthokathan Alister Varghese</t>
-  </si>
-  <si>
-    <t>alistervarghese10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7e26d127-5dd1-455b-a590-7a00c82a482e</t>
-  </si>
-  <si>
-    <t>Nathan Furtado</t>
-  </si>
-  <si>
-    <t>furtadonathan16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b878b93b-103e-4f52-b048-9d928179c8ff</t>
-  </si>
-  <si>
-    <t>Ashlesha Tambata</t>
-  </si>
-  <si>
-    <t>tambatashlesha16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5a94fd4e-4d32-450f-8abc-9322a7c2ad23</t>
-  </si>
-  <si>
-    <t>Siya Bhutada</t>
-  </si>
-  <si>
-    <t>siyabhutada08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/342f82e9-0cb1-41d7-b747-e2b8a1f12877</t>
-  </si>
-  <si>
-    <t>Soham Datar</t>
-  </si>
-  <si>
-    <t>datarsoham0512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/72dc734e-b7e0-49cd-8575-b68a43847d31</t>
-  </si>
-  <si>
-    <t>Austin Joy</t>
-  </si>
-  <si>
-    <t>kenz0140309@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9ccadff-0fbc-48e8-9f6e-a0fff4a2a624</t>
-  </si>
-  <si>
-    <t>Rohan Jagdale</t>
-  </si>
-  <si>
-    <t>rohanjagdale0905@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e3dd776b-4074-40f2-a3ca-b6747b068779</t>
-  </si>
-  <si>
-    <t>Servesh Khade</t>
-  </si>
-  <si>
-    <t>serveshkhade7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/78ddbe97-b72e-418f-88ed-ead598a56228</t>
-  </si>
-  <si>
-    <t>Pramit Prashant Kulkarni</t>
-  </si>
-  <si>
-    <t>pk5226299@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7c0b1d7e-9a24-405f-af4b-1df9495668f8</t>
-  </si>
-  <si>
-    <t>Jaeden Lourenco pereira</t>
-  </si>
-  <si>
-    <t>sayedasma687@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6e646b85-03a7-4dce-8b62-733ef319e2e3</t>
-  </si>
-  <si>
-    <t>Harshali Gokhale</t>
-  </si>
-  <si>
-    <t>gokhaleharshali23@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9fa3862-30be-4bfe-b1c6-29f9fbeb381f</t>
-  </si>
-  <si>
-    <t>Atharva Khadye</t>
-  </si>
-  <si>
-    <t>atharvakhadyecloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3485a3ac-0e35-4107-913f-afae7e9ed2f4</t>
-  </si>
-  <si>
-    <t>Aditya Vishwakarma</t>
-  </si>
-  <si>
-    <t>workplaceofaditya@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92e53e29-e51e-431d-b40c-8205d0e63c95</t>
-  </si>
-  <si>
-    <t>Vedant Ghuge</t>
-  </si>
-  <si>
-    <t>ghugevedant93@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6e93b21f-f194-4f96-92d6-462700579594</t>
-  </si>
-  <si>
-    <t>Prajyotsna Thiyassheri</t>
-  </si>
-  <si>
-    <t>prajyotsna01@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3fca0a-301a-421b-80e6-1705053a2cc6</t>
-  </si>
-  <si>
-    <t>Vikas Bhagat</t>
-  </si>
-  <si>
-    <t>vikasbh260605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bce40b83-d010-4bac-ab1f-475ffbec284f</t>
-  </si>
-  <si>
-    <t>Crystal Dsouza</t>
-  </si>
-  <si>
-    <t>crystaldsouza900@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cdc8ab52-1673-4519-b917-19e640eba0d1</t>
-  </si>
-  <si>
-    <t>Suhani Raghunandan Rumade</t>
-  </si>
-  <si>
-    <t>iamsweni@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c81a9a80-9744-4f8a-a4b1-4d25e52c153d</t>
-  </si>
-  <si>
-    <t>Ritika Bharat Andhale</t>
-  </si>
-  <si>
-    <t>ritika.180216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f5eac091-24e4-4de4-b53f-3785c54197ce</t>
-  </si>
-  <si>
     <t>Krisha Hannah Barretto</t>
   </si>
   <si>
@@ -2114,6 +2126,9 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/69a682ce-5f86-49ea-8069-5d69fcd3a268</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Nicole Pereira</t>
@@ -2599,7 +2614,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2723,7 +2738,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
@@ -2755,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>29</v>
@@ -2787,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>33</v>
@@ -2892,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2903,13 +2918,13 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -2924,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2935,13 +2950,13 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -2956,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2967,13 +2982,13 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -2996,13 +3011,13 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -3014,10 +3029,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -3031,13 +3046,13 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -3066,13 +3081,13 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -3087,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -3098,13 +3113,13 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -3119,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3130,13 +3145,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3151,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3162,13 +3177,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -3183,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3194,13 +3209,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3229,13 +3244,13 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3250,7 +3265,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
@@ -3258,13 +3276,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -3287,13 +3305,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -3308,7 +3326,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3319,13 +3337,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -3348,13 +3366,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -3369,7 +3387,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -3380,13 +3398,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3401,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3412,13 +3430,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -3433,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3444,13 +3462,13 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -3465,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -3479,13 +3497,13 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -3497,16 +3515,16 @@
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>
@@ -3514,13 +3532,13 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -3535,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -3549,13 +3567,13 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -3584,13 +3602,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3605,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3616,13 +3634,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3634,10 +3652,10 @@
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -3651,13 +3669,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3672,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3683,13 +3701,13 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3700,28 +3718,31 @@
       <c r="F34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>135</v>
+      <c r="G34" s="1">
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>135</v>
+        <v>42</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3736,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3747,13 +3768,13 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3776,28 +3797,28 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1">
-        <v>14</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3808,13 +3829,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3837,31 +3858,34 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="1">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
       </c>
       <c r="K39" t="s">
         <v>18</v>
@@ -3869,13 +3893,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3898,13 +3922,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3919,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3930,13 +3954,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -3965,13 +3989,13 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -3994,13 +4018,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4029,13 +4053,13 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4058,13 +4082,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4096,28 +4120,28 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="1">
-        <v>18</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4128,13 +4152,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4152,21 +4176,24 @@
         <v>42</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4181,7 +4208,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4192,13 +4219,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4227,13 +4254,13 @@
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4256,13 +4283,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4277,7 +4304,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4288,13 +4315,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4309,7 +4336,7 @@
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -4320,13 +4347,13 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -4341,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -4355,13 +4382,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4376,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4387,13 +4414,13 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -4408,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4419,13 +4446,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4440,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4451,13 +4478,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4486,13 +4513,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4515,28 +4542,28 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="1">
-        <v>7</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4928,7 +4955,10 @@
         <v>265</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>34</v>
       </c>
       <c r="K73" t="s">
         <v>18</v>
@@ -5018,7 +5048,7 @@
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
         <v>276</v>
@@ -5117,7 +5147,7 @@
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -5300,10 +5330,10 @@
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
@@ -5317,13 +5347,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5346,13 +5376,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5375,13 +5405,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5393,7 +5423,10 @@
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H88" t="s">
+        <v>315</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -5404,13 +5437,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5439,13 +5472,13 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5468,13 +5501,13 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -5495,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K91" t="s">
         <v>43</v>
@@ -5503,13 +5536,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5521,10 +5554,10 @@
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -5538,13 +5571,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5567,13 +5600,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5596,13 +5629,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5625,13 +5658,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5654,13 +5687,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5683,13 +5716,13 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -5718,13 +5751,13 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -5736,10 +5769,10 @@
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>349</v>
+        <v>60</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -5750,13 +5783,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -5785,13 +5818,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5814,13 +5847,13 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -5835,7 +5868,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5846,13 +5879,13 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -5864,10 +5897,10 @@
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>362</v>
+        <v>265</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -5989,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -6000,13 +6033,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6029,13 +6062,13 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -6047,10 +6080,10 @@
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -6061,13 +6094,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6082,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -6093,13 +6126,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6114,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -6125,13 +6158,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6154,13 +6187,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6183,13 +6216,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6212,13 +6245,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6233,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6244,13 +6277,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6265,7 +6298,7 @@
         <v>6</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6276,13 +6309,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6297,7 +6330,7 @@
         <v>13</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -6311,13 +6344,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6340,13 +6373,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6372,13 +6405,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6401,13 +6434,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
@@ -6436,13 +6469,13 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6457,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -6468,13 +6501,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6497,13 +6530,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6526,13 +6559,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6555,13 +6588,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -6584,13 +6617,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6613,13 +6646,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6642,13 +6675,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6660,10 +6693,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -6674,13 +6707,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6703,13 +6736,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6732,13 +6765,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6761,13 +6794,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6793,13 +6826,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6822,13 +6855,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6840,10 +6873,10 @@
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>113</v>
+        <v>467</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -6854,13 +6887,13 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -6872,10 +6905,10 @@
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>424</v>
+        <v>226</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6886,13 +6919,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -6915,13 +6948,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -6939,21 +6972,24 @@
         <v>42</v>
       </c>
       <c r="I138" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>34</v>
       </c>
       <c r="K138" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -6976,13 +7012,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -7005,13 +7041,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7037,13 +7073,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7058,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7069,13 +7105,13 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -7090,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
@@ -7104,13 +7140,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7133,13 +7169,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7168,13 +7204,13 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7197,13 +7233,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7218,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -7229,13 +7265,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7258,13 +7294,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7287,13 +7323,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7308,7 +7344,7 @@
         <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -7319,13 +7355,13 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7340,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7351,13 +7387,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7386,13 +7422,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7415,13 +7451,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7444,13 +7480,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7479,13 +7515,13 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7508,13 +7544,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7537,13 +7573,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7555,10 +7591,10 @@
         <v>16</v>
       </c>
       <c r="G158" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>535</v>
+        <v>42</v>
       </c>
       <c r="I158" s="1">
         <v>1</v>
@@ -7567,18 +7603,18 @@
         <v>34</v>
       </c>
       <c r="K158" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
@@ -7593,7 +7629,7 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -7604,13 +7640,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7633,13 +7669,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7662,13 +7698,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7697,13 +7733,13 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7718,7 +7754,7 @@
         <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I163" s="1">
         <v>1</v>
@@ -7732,13 +7768,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7761,13 +7797,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7782,7 +7818,7 @@
         <v>10</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
@@ -7796,13 +7832,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7825,13 +7861,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7854,13 +7890,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7886,13 +7922,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -7921,13 +7957,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -7950,13 +7986,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -7979,13 +8015,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -8008,13 +8044,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -8037,13 +8073,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8066,13 +8102,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8087,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>586</v>
+        <v>129</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8098,13 +8134,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8127,13 +8163,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8156,13 +8192,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8185,13 +8221,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8214,13 +8250,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8232,10 +8268,10 @@
         <v>16</v>
       </c>
       <c r="G180" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>603</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -8246,13 +8282,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8275,13 +8311,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8304,13 +8340,13 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -8339,13 +8375,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8368,13 +8404,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8397,13 +8433,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8426,13 +8462,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8455,13 +8491,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8484,13 +8520,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8516,13 +8552,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8537,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -8548,13 +8584,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8577,13 +8613,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8606,13 +8642,13 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -8641,13 +8677,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8670,13 +8706,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8699,13 +8735,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8728,13 +8764,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8757,13 +8793,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8786,13 +8822,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8810,10 +8846,10 @@
         <v>42</v>
       </c>
       <c r="I199" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>34</v>
+        <v>661</v>
       </c>
       <c r="K199" t="s">
         <v>43</v>
@@ -8821,13 +8857,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8850,13 +8886,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -8879,13 +8915,13 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
@@ -8897,13 +8933,16 @@
         <v>16</v>
       </c>
       <c r="G202" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H202" t="s">
-        <v>209</v>
+        <v>671</v>
       </c>
       <c r="I202" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>34</v>
       </c>
       <c r="K202" t="s">
         <v>18</v>
@@ -8911,13 +8950,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -8940,13 +8979,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -8969,13 +9008,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -8998,13 +9037,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -9027,13 +9066,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9056,13 +9095,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9085,13 +9124,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9114,13 +9153,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9143,13 +9182,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9172,13 +9211,13 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>14</v>
@@ -9190,10 +9229,10 @@
         <v>16</v>
       </c>
       <c r="G212" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>272</v>
+        <v>702</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -9204,13 +9243,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9233,13 +9272,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9262,13 +9301,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9291,13 +9330,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9320,13 +9359,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9349,13 +9388,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9378,13 +9417,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9407,13 +9446,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9436,13 +9475,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9465,13 +9504,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9494,13 +9533,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9523,13 +9562,13 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
@@ -9544,7 +9583,7 @@
         <v>10</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
@@ -9558,13 +9597,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8D57D-094D-40CF-A8D5-DDA25744B377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06D327-D168-4BA8-A6C2-35870A0F4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="741">
   <si>
     <t>User Name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -97,9 +97,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
     <t>Vaishnavi Sawant</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -184,6 +178,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>CHERLIN TERENCE LOBO</t>
   </si>
   <si>
@@ -235,7 +232,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>JIshnu Gopalakrishnan Nair</t>
@@ -352,9 +349,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Pearlin Charlston Tixeira</t>
   </si>
   <si>
@@ -364,1680 +358,1680 @@
     <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
   </si>
   <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
     <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
+  </si>
+  <si>
+    <t>Jay Sandeep Shinde</t>
+  </si>
+  <si>
+    <t>jayshindee.111@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
+  </si>
+  <si>
+    <t>Kaustubh Pankaj Gund</t>
+  </si>
+  <si>
+    <t>gundkaustubh33@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
+  </si>
+  <si>
+    <t>Jayita Mrityunjoy Chakraborty</t>
+  </si>
+  <si>
+    <t>jayic1707@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prasad Subhedar</t>
+  </si>
+  <si>
+    <t>progdev25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
+  </si>
+  <si>
+    <t>Smrutishree</t>
+  </si>
+  <si>
+    <t>smrutee2029@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
+  </si>
+  <si>
+    <t>Harshita Vinod Vyas</t>
+  </si>
+  <si>
+    <t>harshitavyas1106@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
+  </si>
+  <si>
+    <t>Gargi Prakash Shringare</t>
+  </si>
+  <si>
+    <t>gargishringare086@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
+  </si>
+  <si>
+    <t>Neville Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza18neville@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
+  </si>
+  <si>
+    <t>Sharon Louis</t>
+  </si>
+  <si>
+    <t>louis.sharon197@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
+  </si>
+  <si>
+    <t>Vedant Apraj</t>
+  </si>
+  <si>
+    <t>vedantapraj5125@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
+  </si>
+  <si>
+    <t>Anusha  Gupta</t>
+  </si>
+  <si>
+    <t>anushagupta1375@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
+  </si>
+  <si>
+    <t>Hazel Joy</t>
+  </si>
+  <si>
+    <t>tinywrathbb1403@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
+  </si>
+  <si>
+    <t>Aayush Pulkundwar</t>
+  </si>
+  <si>
+    <t>pulkundwaraayushh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
   </si>
   <si>
     <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+    <t>Kenneth Ornello</t>
+  </si>
+  <si>
+    <t>kennethornelloacm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dadd1943-86cb-42b0-bf76-5dd6187433ec</t>
+  </si>
+  <si>
+    <t>Lester Fernandes</t>
+  </si>
+  <si>
+    <t>lestergdc18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c3861e39-4bad-47e9-a1ca-42896aa537c5</t>
+  </si>
+  <si>
+    <t>SHAUN DSOUZA</t>
+  </si>
+  <si>
+    <t>shaundsouza107@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d8b0f920-971a-4641-af69-126889f19d70</t>
+  </si>
+  <si>
+    <t>Aditya Saji</t>
+  </si>
+  <si>
+    <t>adityasaji005@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6a8a5080-9d6b-42f3-ac8b-31c71c247263</t>
+  </si>
+  <si>
+    <t>Saroj Kumawat</t>
+  </si>
+  <si>
+    <t>sarojkumawat476@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cf3ca54d-b75a-440b-a3f4-56b19c624796</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Riya Sibil</t>
+  </si>
+  <si>
+    <t>riyasibil1501@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/abd83aae-c198-4747-a7ad-8d98b5543ec5</t>
+  </si>
+  <si>
+    <t>Tanmay Tajane</t>
+  </si>
+  <si>
+    <t>tajanetanmay16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/862298dd-a74c-4072-b6be-5866756a528f</t>
+  </si>
+  <si>
+    <t>Bhumi Kadam</t>
+  </si>
+  <si>
+    <t>kbhumii005@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
+  </si>
+  <si>
+    <t>Kuthokathan Alister Varghese</t>
+  </si>
+  <si>
+    <t>alistervarghese10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7e26d127-5dd1-455b-a590-7a00c82a482e</t>
+  </si>
+  <si>
+    <t>Nathan Furtado</t>
+  </si>
+  <si>
+    <t>furtadonathan16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b878b93b-103e-4f52-b048-9d928179c8ff</t>
+  </si>
+  <si>
+    <t>Ashlesha Tambata</t>
+  </si>
+  <si>
+    <t>tambatashlesha16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5a94fd4e-4d32-450f-8abc-9322a7c2ad23</t>
+  </si>
+  <si>
+    <t>Siya Bhutada</t>
+  </si>
+  <si>
+    <t>siyabhutada08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/342f82e9-0cb1-41d7-b747-e2b8a1f12877</t>
+  </si>
+  <si>
+    <t>Soham Datar</t>
+  </si>
+  <si>
+    <t>datarsoham0512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/72dc734e-b7e0-49cd-8575-b68a43847d31</t>
+  </si>
+  <si>
+    <t>Austin Joy</t>
+  </si>
+  <si>
+    <t>kenz0140309@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9ccadff-0fbc-48e8-9f6e-a0fff4a2a624</t>
+  </si>
+  <si>
+    <t>Rohan Jagdale</t>
+  </si>
+  <si>
+    <t>rohanjagdale0905@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e3dd776b-4074-40f2-a3ca-b6747b068779</t>
+  </si>
+  <si>
+    <t>Servesh Khade</t>
+  </si>
+  <si>
+    <t>serveshkhade7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/78ddbe97-b72e-418f-88ed-ead598a56228</t>
+  </si>
+  <si>
+    <t>Pramit Prashant Kulkarni</t>
+  </si>
+  <si>
+    <t>pk5226299@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7c0b1d7e-9a24-405f-af4b-1df9495668f8</t>
+  </si>
+  <si>
+    <t>Jaeden Lourenco pereira</t>
+  </si>
+  <si>
+    <t>sayedasma687@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6e646b85-03a7-4dce-8b62-733ef319e2e3</t>
+  </si>
+  <si>
+    <t>Harshali Gokhale</t>
+  </si>
+  <si>
+    <t>gokhaleharshali23@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9fa3862-30be-4bfe-b1c6-29f9fbeb381f</t>
+  </si>
+  <si>
+    <t>Atharva Khadye</t>
+  </si>
+  <si>
+    <t>atharvakhadyecloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3485a3ac-0e35-4107-913f-afae7e9ed2f4</t>
+  </si>
+  <si>
+    <t>Aditya Vishwakarma</t>
+  </si>
+  <si>
+    <t>workplaceofaditya@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92e53e29-e51e-431d-b40c-8205d0e63c95</t>
+  </si>
+  <si>
+    <t>Vedant Ghuge</t>
+  </si>
+  <si>
+    <t>ghugevedant93@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6e93b21f-f194-4f96-92d6-462700579594</t>
+  </si>
+  <si>
+    <t>Prajyotsna Thiyassheri</t>
+  </si>
+  <si>
+    <t>prajyotsna01@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3fca0a-301a-421b-80e6-1705053a2cc6</t>
+  </si>
+  <si>
+    <t>Vikas Bhagat</t>
+  </si>
+  <si>
+    <t>vikasbh260605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bce40b83-d010-4bac-ab1f-475ffbec284f</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Trivia October 2025 Week 1</t>
+  </si>
+  <si>
+    <t>Crystal Dsouza</t>
+  </si>
+  <si>
+    <t>crystaldsouza900@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cdc8ab52-1673-4519-b917-19e640eba0d1</t>
+  </si>
+  <si>
+    <t>Suhani Raghunandan Rumade</t>
+  </si>
+  <si>
+    <t>iamsweni@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c81a9a80-9744-4f8a-a4b1-4d25e52c153d</t>
+  </si>
+  <si>
+    <t>Ritika Bharat Andhale</t>
+  </si>
+  <si>
+    <t>ritika.180216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f5eac091-24e4-4de4-b53f-3785c54197ce</t>
   </si>
   <si>
     <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
-    <t>Keshav Prajapati</t>
-  </si>
-  <si>
-    <t>kpcode3105@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
-  </si>
-  <si>
-    <t>Anurag Ajit Bhide</t>
-  </si>
-  <si>
-    <t>anuragbhide0906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
-  </si>
-  <si>
-    <t>Dylan Noronha</t>
-  </si>
-  <si>
-    <t>dylannoronha80@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
-  </si>
-  <si>
-    <t>Saksham Sanjay Patil</t>
-  </si>
-  <si>
-    <t>patilsaksham7890@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
-  </si>
-  <si>
-    <t>Dev Dominic</t>
-  </si>
-  <si>
-    <t>dominicdev2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
-  </si>
-  <si>
-    <t>Prasad Atmaram Shinde</t>
-  </si>
-  <si>
-    <t>prasadshinde0019@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
-  </si>
-  <si>
-    <t>Trisha Joy Alappat</t>
-  </si>
-  <si>
-    <t>trishaalappat@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
-  </si>
-  <si>
-    <t>Jay Sandeep Shinde</t>
-  </si>
-  <si>
-    <t>jayshindee.111@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
-  </si>
-  <si>
-    <t>Kaustubh Pankaj Gund</t>
-  </si>
-  <si>
-    <t>gundkaustubh33@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
-  </si>
-  <si>
-    <t>Jayita Mrityunjoy Chakraborty</t>
-  </si>
-  <si>
-    <t>jayic1707@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
-  </si>
-  <si>
-    <t>Prasad Subhedar</t>
-  </si>
-  <si>
-    <t>progdev25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
-  </si>
-  <si>
-    <t>Smrutishree</t>
-  </si>
-  <si>
-    <t>smrutee2029@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
-  </si>
-  <si>
-    <t>Harshita Vinod Vyas</t>
-  </si>
-  <si>
-    <t>harshitavyas1106@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
-  </si>
-  <si>
-    <t>Gargi Prakash Shringare</t>
-  </si>
-  <si>
-    <t>gargishringare086@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
-  </si>
-  <si>
-    <t>Neville Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza18neville@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
-  </si>
-  <si>
-    <t>Sharon Louis</t>
-  </si>
-  <si>
-    <t>louis.sharon197@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
-  </si>
-  <si>
-    <t>Vedant Apraj</t>
-  </si>
-  <si>
-    <t>vedantapraj5125@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
-  </si>
-  <si>
-    <t>anushagupta1375@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
-  </si>
-  <si>
-    <t>Hazel Joy</t>
-  </si>
-  <si>
-    <t>tinywrathbb1403@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
-  </si>
-  <si>
-    <t>Aayush Pulkundwar</t>
-  </si>
-  <si>
-    <t>pulkundwaraayushh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
-  </si>
-  <si>
-    <t>Kenneth Ornello</t>
-  </si>
-  <si>
-    <t>kennethornelloacm@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dadd1943-86cb-42b0-bf76-5dd6187433ec</t>
-  </si>
-  <si>
-    <t>Lester Fernandes</t>
-  </si>
-  <si>
-    <t>lestergdc18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c3861e39-4bad-47e9-a1ca-42896aa537c5</t>
-  </si>
-  <si>
-    <t>SHAUN DSOUZA</t>
-  </si>
-  <si>
-    <t>shaundsouza107@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d8b0f920-971a-4641-af69-126889f19d70</t>
-  </si>
-  <si>
-    <t>Aditya Saji</t>
-  </si>
-  <si>
-    <t>adityasaji005@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6a8a5080-9d6b-42f3-ac8b-31c71c247263</t>
-  </si>
-  <si>
-    <t>Saroj Kumawat</t>
-  </si>
-  <si>
-    <t>sarojkumawat476@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cf3ca54d-b75a-440b-a3f4-56b19c624796</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Riya Sibil</t>
-  </si>
-  <si>
-    <t>riyasibil1501@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/abd83aae-c198-4747-a7ad-8d98b5543ec5</t>
-  </si>
-  <si>
-    <t>Tanmay Tajane</t>
-  </si>
-  <si>
-    <t>tajanetanmay16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/862298dd-a74c-4072-b6be-5866756a528f</t>
-  </si>
-  <si>
-    <t>Bhumi Kadam</t>
-  </si>
-  <si>
-    <t>kbhumii005@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
-  </si>
-  <si>
-    <t>Kuthokathan Alister Varghese</t>
-  </si>
-  <si>
-    <t>alistervarghese10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7e26d127-5dd1-455b-a590-7a00c82a482e</t>
-  </si>
-  <si>
-    <t>Nathan Furtado</t>
-  </si>
-  <si>
-    <t>furtadonathan16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b878b93b-103e-4f52-b048-9d928179c8ff</t>
-  </si>
-  <si>
-    <t>Ashlesha Tambata</t>
-  </si>
-  <si>
-    <t>tambatashlesha16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5a94fd4e-4d32-450f-8abc-9322a7c2ad23</t>
-  </si>
-  <si>
-    <t>Siya Bhutada</t>
-  </si>
-  <si>
-    <t>siyabhutada08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/342f82e9-0cb1-41d7-b747-e2b8a1f12877</t>
-  </si>
-  <si>
-    <t>Soham Datar</t>
-  </si>
-  <si>
-    <t>datarsoham0512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/72dc734e-b7e0-49cd-8575-b68a43847d31</t>
-  </si>
-  <si>
-    <t>Austin Joy</t>
-  </si>
-  <si>
-    <t>kenz0140309@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9ccadff-0fbc-48e8-9f6e-a0fff4a2a624</t>
-  </si>
-  <si>
-    <t>Rohan Jagdale</t>
-  </si>
-  <si>
-    <t>rohanjagdale0905@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e3dd776b-4074-40f2-a3ca-b6747b068779</t>
-  </si>
-  <si>
-    <t>Servesh Khade</t>
-  </si>
-  <si>
-    <t>serveshkhade7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/78ddbe97-b72e-418f-88ed-ead598a56228</t>
-  </si>
-  <si>
-    <t>Pramit Prashant Kulkarni</t>
-  </si>
-  <si>
-    <t>pk5226299@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7c0b1d7e-9a24-405f-af4b-1df9495668f8</t>
-  </si>
-  <si>
-    <t>Jaeden Lourenco pereira</t>
-  </si>
-  <si>
-    <t>sayedasma687@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6e646b85-03a7-4dce-8b62-733ef319e2e3</t>
-  </si>
-  <si>
-    <t>Harshali Gokhale</t>
-  </si>
-  <si>
-    <t>gokhaleharshali23@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9fa3862-30be-4bfe-b1c6-29f9fbeb381f</t>
-  </si>
-  <si>
-    <t>Atharva Khadye</t>
-  </si>
-  <si>
-    <t>atharvakhadyecloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3485a3ac-0e35-4107-913f-afae7e9ed2f4</t>
-  </si>
-  <si>
-    <t>Aditya Vishwakarma</t>
-  </si>
-  <si>
-    <t>workplaceofaditya@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92e53e29-e51e-431d-b40c-8205d0e63c95</t>
-  </si>
-  <si>
-    <t>Vedant Ghuge</t>
-  </si>
-  <si>
-    <t>ghugevedant93@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6e93b21f-f194-4f96-92d6-462700579594</t>
-  </si>
-  <si>
-    <t>Prajyotsna Thiyassheri</t>
-  </si>
-  <si>
-    <t>prajyotsna01@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3fca0a-301a-421b-80e6-1705053a2cc6</t>
-  </si>
-  <si>
-    <t>Vikas Bhagat</t>
-  </si>
-  <si>
-    <t>vikasbh260605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bce40b83-d010-4bac-ab1f-475ffbec284f</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Trivia October 2025 Week 1</t>
-  </si>
-  <si>
-    <t>Crystal Dsouza</t>
-  </si>
-  <si>
-    <t>crystaldsouza900@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cdc8ab52-1673-4519-b917-19e640eba0d1</t>
-  </si>
-  <si>
-    <t>Suhani Raghunandan Rumade</t>
-  </si>
-  <si>
-    <t>iamsweni@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c81a9a80-9744-4f8a-a4b1-4d25e52c153d</t>
-  </si>
-  <si>
-    <t>Ritika Bharat Andhale</t>
-  </si>
-  <si>
-    <t>ritika.180216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f5eac091-24e4-4de4-b53f-3785c54197ce</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
     <t>Krisha Hannah Barretto</t>
   </si>
   <si>
@@ -2128,7 +2122,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/69a682ce-5f86-49ea-8069-5d69fcd3a268</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Nicole Pereira</t>
@@ -2237,6 +2231,9 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/3726c962-8497-437c-9609-305dc780fa43</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Sanjay Yadav</t>
@@ -2614,7 +2611,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2677,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -2738,10 +2735,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -2752,28 +2749,28 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -2784,13 +2781,13 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -2805,13 +2802,13 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -2819,13 +2816,13 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -2840,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2851,13 +2848,13 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -2872,27 +2869,27 @@
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -2907,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2918,13 +2915,13 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -2939,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2950,31 +2947,34 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -3011,34 +3011,34 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -3067,42 +3067,42 @@
         <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -3113,28 +3113,28 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -3198,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3230,27 +3230,27 @@
         <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -3326,7 +3326,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -3366,13 +3366,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -3387,7 +3387,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -3451,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3462,14 +3462,14 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
@@ -3480,31 +3480,31 @@
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
@@ -3515,30 +3515,30 @@
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -3553,13 +3553,13 @@
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
         <v>18</v>
@@ -3567,13 +3567,13 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -3588,27 +3588,27 @@
         <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3623,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3652,16 +3652,16 @@
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
         <v>18</v>
@@ -3669,13 +3669,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3690,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3701,13 +3701,13 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3722,27 +3722,27 @@
         <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3757,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3768,13 +3768,13 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3797,13 +3797,13 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -3818,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3829,13 +3829,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -3879,13 +3879,13 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s">
         <v>18</v>
@@ -3893,13 +3893,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3922,13 +3922,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3954,13 +3954,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -3975,27 +3975,27 @@
         <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -4007,7 +4007,10 @@
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>162</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -4018,13 +4021,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4039,27 +4042,27 @@
         <v>19</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4082,13 +4085,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4103,16 +4106,16 @@
         <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -4120,13 +4123,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -4138,10 +4141,10 @@
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4152,13 +4155,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4173,27 +4176,27 @@
         <v>19</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4208,7 +4211,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4219,13 +4222,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4240,27 +4243,27 @@
         <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4283,13 +4286,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4304,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4315,13 +4318,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4333,13 +4336,16 @@
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
       </c>
       <c r="K53" t="s">
         <v>18</v>
@@ -4347,13 +4353,13 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -4368,13 +4374,13 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s">
         <v>18</v>
@@ -4382,13 +4388,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4403,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4414,13 +4420,13 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -4435,7 +4441,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4446,13 +4452,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4464,10 +4470,10 @@
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4478,13 +4484,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4499,27 +4505,27 @@
         <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4542,13 +4548,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4563,7 +4569,7 @@
         <v>8</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4574,13 +4580,13 @@
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4595,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4606,13 +4612,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4635,13 +4641,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4653,10 +4659,10 @@
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -4667,13 +4673,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4696,13 +4702,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4725,13 +4731,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4754,13 +4760,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4783,13 +4789,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4812,13 +4818,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -4841,13 +4847,13 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -4862,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4873,13 +4879,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4902,13 +4908,13 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -4931,13 +4937,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -4949,16 +4955,16 @@
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K73" t="s">
         <v>18</v>
@@ -4966,13 +4972,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -4987,7 +4993,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -4998,13 +5004,13 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -5019,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -5030,13 +5036,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -5051,7 +5057,7 @@
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -5062,13 +5068,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5083,13 +5089,13 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K77" t="s">
         <v>18</v>
@@ -5097,13 +5103,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5126,13 +5132,13 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
@@ -5144,10 +5150,10 @@
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -5158,13 +5164,13 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -5179,7 +5185,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -5190,13 +5196,13 @@
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5219,13 +5225,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5248,13 +5254,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5272,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K83" t="s">
         <v>18</v>
@@ -5280,13 +5286,13 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -5298,10 +5304,10 @@
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -5312,13 +5318,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5330,30 +5336,30 @@
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5376,13 +5382,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5405,13 +5411,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5426,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -5437,13 +5443,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5458,27 +5464,27 @@
         <v>19</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5490,7 +5496,10 @@
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -5501,13 +5510,13 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -5522,27 +5531,27 @@
         <v>19</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I91" s="1">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5554,30 +5563,30 @@
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K92" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5600,13 +5609,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5629,13 +5638,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5658,13 +5667,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5687,13 +5696,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5716,13 +5725,13 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -5737,13 +5746,13 @@
         <v>9</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K98" t="s">
         <v>18</v>
@@ -5751,13 +5760,13 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -5769,10 +5778,10 @@
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -5783,13 +5792,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -5804,27 +5813,27 @@
         <v>19</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5847,13 +5856,13 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -5868,7 +5877,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5879,13 +5888,13 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -5897,10 +5906,10 @@
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -5911,13 +5920,13 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
@@ -5932,7 +5941,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -5943,13 +5952,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -5972,13 +5981,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -6001,13 +6010,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -6022,7 +6031,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -6033,13 +6042,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6051,7 +6060,10 @@
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>371</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -6062,13 +6074,13 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -6080,10 +6092,10 @@
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H109" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -6094,13 +6106,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6112,10 +6124,10 @@
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>47</v>
+        <v>379</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -6126,13 +6138,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6147,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -6158,13 +6170,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6187,13 +6199,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6216,13 +6228,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6245,13 +6257,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6266,7 +6278,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6277,13 +6289,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6295,10 +6307,10 @@
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6309,13 +6321,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6327,16 +6339,16 @@
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K117" t="s">
         <v>18</v>
@@ -6344,13 +6356,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6373,13 +6385,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6394,7 +6406,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -6405,13 +6417,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6434,13 +6446,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
@@ -6455,27 +6467,27 @@
         <v>19</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I121" s="1">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6490,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -6501,13 +6513,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6530,13 +6542,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6559,13 +6571,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6577,7 +6589,10 @@
         <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>155</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -6588,13 +6603,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -6617,13 +6632,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6646,13 +6661,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6675,13 +6690,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6696,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -6707,13 +6722,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6736,13 +6751,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6765,13 +6780,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6794,13 +6809,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6812,10 +6827,10 @@
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6826,13 +6841,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6855,13 +6870,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6873,10 +6888,10 @@
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -6887,13 +6902,13 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -6908,7 +6923,7 @@
         <v>5</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6919,13 +6934,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -6948,13 +6963,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -6969,27 +6984,27 @@
         <v>19</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I138" s="1">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -7012,13 +7027,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -7041,13 +7056,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7062,7 +7077,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>265</v>
+        <v>479</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7073,13 +7088,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7094,7 +7109,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7105,13 +7120,13 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -7126,13 +7141,13 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K143" t="s">
         <v>18</v>
@@ -7140,13 +7155,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7169,13 +7184,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7190,27 +7205,27 @@
         <v>19</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I145" s="1">
         <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7233,13 +7248,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7254,7 +7269,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -7265,13 +7280,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7294,13 +7309,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7323,13 +7338,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7344,7 +7359,7 @@
         <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -7355,13 +7370,13 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7373,10 +7388,10 @@
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7387,13 +7402,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7408,27 +7423,27 @@
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I152" s="1">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7451,13 +7466,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7480,13 +7495,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7501,27 +7516,27 @@
         <v>19</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I155" s="1">
         <v>1</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7544,13 +7559,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7573,13 +7588,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7594,27 +7609,27 @@
         <v>19</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I158" s="1">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
@@ -7629,7 +7644,7 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>212</v>
+        <v>535</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -7640,13 +7655,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7669,13 +7684,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7698,13 +7713,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7719,27 +7734,27 @@
         <v>19</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I162" s="1">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7754,13 +7769,13 @@
         <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I163" s="1">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K163" t="s">
         <v>18</v>
@@ -7768,13 +7783,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7797,13 +7812,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7815,16 +7830,16 @@
         <v>16</v>
       </c>
       <c r="G165" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>47</v>
+        <v>554</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K165" t="s">
         <v>18</v>
@@ -7832,13 +7847,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7861,13 +7876,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7890,13 +7905,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7911,7 +7926,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -7922,13 +7937,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -7943,13 +7958,13 @@
         <v>3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>265</v>
+        <v>479</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K169" t="s">
         <v>18</v>
@@ -7957,13 +7972,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -7986,13 +8001,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -8015,13 +8030,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -8044,13 +8059,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>57</v>
+        <v>576</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -8073,13 +8088,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8102,13 +8117,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8123,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>129</v>
+        <v>585</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8134,13 +8149,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8163,13 +8178,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8192,13 +8207,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8221,13 +8236,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8250,13 +8265,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8271,7 +8286,7 @@
         <v>9</v>
       </c>
       <c r="H180" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -8282,13 +8297,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8311,13 +8326,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8340,13 +8355,13 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -8361,27 +8376,27 @@
         <v>19</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8404,13 +8419,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8433,13 +8448,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8462,14 +8477,14 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
       </c>
@@ -8480,7 +8495,10 @@
         <v>16</v>
       </c>
       <c r="G187" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H187" t="s">
+        <v>371</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -8491,13 +8509,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8520,13 +8538,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8544,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K189" t="s">
         <v>18</v>
@@ -8552,13 +8570,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8573,7 +8591,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -8584,13 +8602,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8613,13 +8631,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8642,13 +8660,13 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -8663,27 +8681,27 @@
         <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I193" s="1">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8706,13 +8724,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8735,13 +8753,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8764,13 +8782,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8793,13 +8811,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8822,13 +8840,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8843,27 +8861,27 @@
         <v>19</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I199" s="1">
         <v>2</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8886,13 +8904,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -8915,34 +8933,34 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="D202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="1">
+        <v>15</v>
+      </c>
+      <c r="H202" t="s">
         <v>669</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" s="1">
-        <v>10</v>
-      </c>
-      <c r="H202" t="s">
-        <v>671</v>
       </c>
       <c r="I202" s="1">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K202" t="s">
         <v>18</v>
@@ -8950,13 +8968,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -8979,13 +8997,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -9008,13 +9026,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -9037,13 +9055,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -9066,13 +9084,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9095,13 +9113,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9124,13 +9142,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9153,13 +9171,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9182,13 +9200,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9211,28 +9229,28 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="1">
+        <v>12</v>
+      </c>
+      <c r="H212" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" s="1">
-        <v>11</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -9243,13 +9261,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9272,13 +9290,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9301,13 +9319,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9330,13 +9348,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9359,13 +9377,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9388,13 +9406,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9417,13 +9435,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9446,13 +9464,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9475,13 +9493,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9504,13 +9522,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9533,13 +9551,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9562,34 +9580,34 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="D224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="1">
+        <v>13</v>
+      </c>
+      <c r="H224" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G224" s="1">
-        <v>10</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K224" t="s">
         <v>18</v>
@@ -9597,13 +9615,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06D327-D168-4BA8-A6C2-35870A0F4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2EDA2-3783-47E7-B87F-A3DD2A753D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="743">
   <si>
     <t>User Name</t>
   </si>
@@ -76,18 +76,24 @@
     <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
+    <t>Level 3: Generative AI [Game]</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Amisha Verma</t>
+  </si>
+  <si>
+    <t>amishavermadbit60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d037c2d6-5448-45a9-99f3-1ba45c25ebf6</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>Amisha Verma</t>
-  </si>
-  <si>
-    <t>amishavermadbit60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d037c2d6-5448-45a9-99f3-1ba45c25ebf6</t>
-  </si>
-  <si>
     <t>Glynis D'Mello</t>
   </si>
   <si>
@@ -121,9 +127,6 @@
     <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Level 3: Generative AI [Game]</t>
-  </si>
-  <si>
     <t>Liston D'souza</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>Bhumi Shashikant Lotankar</t>
   </si>
   <si>
@@ -157,18 +157,21 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
     <t>Aaditi Bhatade</t>
   </si>
   <si>
@@ -178,7 +181,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>CHERLIN TERENCE LOBO</t>
@@ -256,7 +259,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t>Hemal Manohar Bhirud</t>
@@ -316,6 +319,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
   </si>
   <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Jayesh Sanjay Wani</t>
   </si>
   <si>
@@ -370,27 +376,33 @@
     <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
   </si>
   <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
     <t>Neil Joseph Palissery</t>
   </si>
   <si>
@@ -445,7 +457,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Shubham chandrashekar padhy</t>
@@ -595,6 +607,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
     <t>Elissa Quadros</t>
   </si>
   <si>
@@ -673,7 +688,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Archit Mahajan</t>
@@ -814,9 +829,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Yash Sanjay</t>
   </si>
   <si>
@@ -856,9 +868,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
     <t>Navya Vinod Nair</t>
   </si>
   <si>
@@ -895,6 +904,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
     <t>Nilay Shahane</t>
   </si>
   <si>
@@ -1147,7 +1159,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Alysha Dsouza</t>
@@ -1222,7 +1234,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Het Pravin Visariya</t>
@@ -1234,9 +1246,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Soham Rahatwal</t>
   </si>
   <si>
@@ -1423,6 +1432,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
     <t>Anay Deshpande</t>
   </si>
   <si>
@@ -1684,7 +1696,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Prasad Subhedar</t>
@@ -1777,9 +1789,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Kenneth Ornello</t>
   </si>
   <si>
@@ -2029,9 +2038,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/f5eac091-24e4-4de4-b53f-3785c54197ce</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Krisha Hannah Barretto</t>
   </si>
   <si>
@@ -2122,7 +2128,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/69a682ce-5f86-49ea-8069-5d69fcd3a268</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Nicole Pereira</t>
@@ -2233,7 +2239,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/3726c962-8497-437c-9609-305dc780fa43</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Sanjay Yadav</t>
@@ -2611,7 +2617,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2680,21 +2686,24 @@
         <v>17</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -2712,18 +2721,18 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -2741,21 +2750,24 @@
         <v>17</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -2770,24 +2782,24 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -2802,27 +2814,27 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -2837,24 +2849,24 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -2875,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>45</v>
@@ -2910,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,24 +2948,24 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -2965,30 +2977,30 @@
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -3006,18 +3018,18 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -3032,27 +3044,27 @@
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -3073,21 +3085,21 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -3102,24 +3114,24 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -3134,24 +3146,24 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3166,24 +3178,24 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -3195,27 +3207,27 @@
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3236,21 +3248,21 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3268,21 +3280,21 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -3300,18 +3312,18 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -3326,24 +3338,24 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -3361,18 +3373,18 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -3384,27 +3396,27 @@
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3419,24 +3431,24 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -3451,24 +3463,24 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -3489,21 +3501,21 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -3521,24 +3533,24 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -3549,31 +3561,31 @@
       <c r="F29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="1">
-        <v>4</v>
+      <c r="G29" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -3594,21 +3606,21 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3623,24 +3635,24 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3655,27 +3667,27 @@
         <v>7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3690,24 +3702,24 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3728,21 +3740,21 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3757,24 +3769,24 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3792,18 +3804,18 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -3815,27 +3827,27 @@
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3853,18 +3865,18 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -3879,27 +3891,27 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3917,18 +3929,18 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3943,24 +3955,24 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -3981,21 +3993,21 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -4010,24 +4022,24 @@
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4048,21 +4060,21 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4080,18 +4092,18 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4112,10 +4124,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -4123,13 +4135,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -4147,21 +4159,24 @@
         <v>17</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4182,21 +4197,21 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4211,24 +4226,24 @@
         <v>7</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4249,21 +4264,21 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4281,18 +4296,18 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4304,27 +4319,30 @@
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4339,27 +4357,27 @@
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -4374,27 +4392,27 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4406,27 +4424,27 @@
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -4441,24 +4459,24 @@
         <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4473,24 +4491,24 @@
         <v>7</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4511,21 +4529,21 @@
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4543,18 +4561,18 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4566,27 +4584,27 @@
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4601,24 +4619,24 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4636,18 +4654,18 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4659,27 +4677,27 @@
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4697,18 +4715,18 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4726,18 +4744,18 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4755,18 +4773,18 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4784,18 +4802,18 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4813,18 +4831,18 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -4842,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -4868,24 +4886,24 @@
         <v>7</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4903,18 +4921,18 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -4932,18 +4950,18 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -4958,27 +4976,27 @@
         <v>4</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -4990,27 +5008,27 @@
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -5025,24 +5043,24 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -5057,24 +5075,24 @@
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5089,27 +5107,27 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5127,18 +5145,18 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
@@ -5153,24 +5171,24 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -5185,24 +5203,24 @@
         <v>5</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5220,18 +5238,18 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5249,18 +5267,18 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5272,27 +5290,30 @@
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>294</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K83" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -5307,24 +5328,24 @@
         <v>8</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5345,21 +5366,21 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5377,18 +5398,18 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5406,18 +5427,18 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5432,24 +5453,24 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5470,21 +5491,21 @@
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5499,24 +5520,24 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -5534,24 +5555,24 @@
         <v>17</v>
       </c>
       <c r="I91" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K91" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5572,21 +5593,21 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K92" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5604,18 +5625,18 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5633,18 +5654,18 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5662,18 +5683,18 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5691,18 +5712,18 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5720,18 +5741,18 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -5746,27 +5767,27 @@
         <v>9</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -5787,18 +5808,18 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -5819,21 +5840,21 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5851,18 +5872,18 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -5877,24 +5898,24 @@
         <v>5</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -5909,24 +5930,24 @@
         <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
@@ -5941,24 +5962,24 @@
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -5976,18 +5997,18 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -6005,18 +6026,18 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -6031,24 +6052,24 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6063,24 +6084,24 @@
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -6092,27 +6113,27 @@
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6127,24 +6148,24 @@
         <v>13</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6159,24 +6180,24 @@
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6194,18 +6215,18 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6223,18 +6244,18 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6252,18 +6273,18 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6278,24 +6299,24 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6307,27 +6328,27 @@
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6339,30 +6360,30 @@
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K117" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6380,18 +6401,18 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6406,24 +6427,24 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6441,18 +6462,18 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
@@ -6473,21 +6494,21 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6502,24 +6523,24 @@
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6537,18 +6558,18 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6566,18 +6587,18 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6592,24 +6613,24 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -6627,18 +6648,18 @@
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6656,18 +6677,18 @@
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6685,18 +6706,18 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6711,24 +6732,24 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6746,18 +6767,18 @@
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6775,18 +6796,18 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6804,18 +6825,18 @@
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6827,27 +6848,27 @@
         <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6865,18 +6886,18 @@
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6891,24 +6912,24 @@
         <v>16</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -6923,24 +6944,24 @@
         <v>5</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -6952,24 +6973,27 @@
         <v>16</v>
       </c>
       <c r="G137" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>470</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -6990,21 +7014,21 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -7022,18 +7046,18 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -7051,18 +7075,18 @@
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7077,24 +7101,24 @@
         <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7109,24 +7133,24 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -7141,27 +7165,27 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K143" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7179,18 +7203,18 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7211,21 +7235,21 @@
         <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K145" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7243,18 +7267,18 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7269,24 +7293,27 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
       </c>
       <c r="K147" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7304,18 +7331,18 @@
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7333,18 +7360,18 @@
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7359,24 +7386,24 @@
         <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7388,27 +7415,27 @@
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7429,21 +7456,21 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K152" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7461,18 +7488,18 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7490,18 +7517,18 @@
         <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7522,21 +7549,21 @@
         <v>1</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K155" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7554,18 +7581,18 @@
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7583,18 +7610,18 @@
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7615,21 +7642,21 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K158" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
@@ -7644,24 +7671,24 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7679,18 +7706,18 @@
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7708,18 +7735,18 @@
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7740,21 +7767,21 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K162" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7769,27 +7796,27 @@
         <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I163" s="1">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K163" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7807,18 +7834,18 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7830,30 +7857,30 @@
         <v>16</v>
       </c>
       <c r="G165" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K165" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7871,18 +7898,18 @@
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7900,18 +7927,18 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7926,24 +7953,24 @@
         <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -7958,27 +7985,27 @@
         <v>3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K169" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -7996,18 +8023,18 @@
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -8025,18 +8052,18 @@
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -8054,18 +8081,18 @@
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -8083,18 +8110,18 @@
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8112,18 +8139,18 @@
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8135,27 +8162,27 @@
         <v>16</v>
       </c>
       <c r="G175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>585</v>
+        <v>166</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8173,18 +8200,18 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8202,18 +8229,18 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8231,18 +8258,18 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8260,18 +8287,18 @@
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8286,24 +8313,24 @@
         <v>9</v>
       </c>
       <c r="H180" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8321,18 +8348,18 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8350,18 +8377,18 @@
         <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -8382,21 +8409,21 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K183" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8414,18 +8441,18 @@
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8443,18 +8470,18 @@
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8472,18 +8499,18 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8495,7 +8522,7 @@
         <v>16</v>
       </c>
       <c r="G187" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
         <v>371</v>
@@ -8504,18 +8531,18 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8533,18 +8560,18 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8562,21 +8589,21 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K189" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8591,24 +8618,24 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8626,18 +8653,18 @@
         <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8655,18 +8682,18 @@
         <v>0</v>
       </c>
       <c r="K192" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -8687,21 +8714,21 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K193" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8719,18 +8746,18 @@
         <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8748,18 +8775,18 @@
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8777,18 +8804,18 @@
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8806,18 +8833,18 @@
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8835,18 +8862,18 @@
         <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8864,24 +8891,24 @@
         <v>17</v>
       </c>
       <c r="I199" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K199" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8899,18 +8926,18 @@
         <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -8922,24 +8949,27 @@
         <v>16</v>
       </c>
       <c r="G201" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>159</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
@@ -8951,30 +8981,30 @@
         <v>16</v>
       </c>
       <c r="G202" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H202" t="s">
-        <v>669</v>
+        <v>17</v>
       </c>
       <c r="I202" s="1">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K202" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -8992,18 +9022,18 @@
         <v>0</v>
       </c>
       <c r="K203" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -9021,18 +9051,18 @@
         <v>0</v>
       </c>
       <c r="K204" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -9050,18 +9080,18 @@
         <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -9079,18 +9109,18 @@
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9108,18 +9138,18 @@
         <v>0</v>
       </c>
       <c r="K207" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9137,18 +9167,18 @@
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9166,18 +9196,18 @@
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9195,18 +9225,18 @@
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9224,18 +9254,18 @@
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>14</v>
@@ -9247,27 +9277,27 @@
         <v>16</v>
       </c>
       <c r="G212" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9285,18 +9315,18 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9308,24 +9338,27 @@
         <v>16</v>
       </c>
       <c r="G214" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H214" t="s">
+        <v>159</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9343,18 +9376,18 @@
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9372,18 +9405,18 @@
         <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9401,18 +9434,18 @@
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9430,18 +9463,18 @@
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9459,18 +9492,18 @@
         <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9488,18 +9521,18 @@
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9517,18 +9550,18 @@
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9546,18 +9579,18 @@
         <v>0</v>
       </c>
       <c r="K222" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9575,18 +9608,18 @@
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
@@ -9598,30 +9631,30 @@
         <v>16</v>
       </c>
       <c r="G224" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K224" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>
@@ -9639,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2EDA2-3783-47E7-B87F-A3DD2A753D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A139D84-E2EE-4EB5-B651-CE3DDCC39353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="744">
   <si>
     <t>User Name</t>
   </si>
@@ -112,9 +112,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Shaun Rodrigues</t>
   </si>
   <si>
@@ -124,7 +121,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Liston D'souza</t>
@@ -157,1527 +154,1539 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
   </si>
   <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Build a Website on Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1, Skills Boost Arcade Trivia October 2025 Week 2</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
   </si>
   <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
+  </si>
+  <si>
+    <t>Jay Sandeep Shinde</t>
+  </si>
+  <si>
+    <t>jayshindee.111@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
   </si>
   <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
-    <t>Keshav Prajapati</t>
-  </si>
-  <si>
-    <t>kpcode3105@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
-  </si>
-  <si>
-    <t>Anurag Ajit Bhide</t>
-  </si>
-  <si>
-    <t>anuragbhide0906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
-  </si>
-  <si>
-    <t>Dylan Noronha</t>
-  </si>
-  <si>
-    <t>dylannoronha80@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
-  </si>
-  <si>
-    <t>Saksham Sanjay Patil</t>
-  </si>
-  <si>
-    <t>patilsaksham7890@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dev Dominic</t>
-  </si>
-  <si>
-    <t>dominicdev2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
-  </si>
-  <si>
-    <t>Prasad Atmaram Shinde</t>
-  </si>
-  <si>
-    <t>prasadshinde0019@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
-  </si>
-  <si>
-    <t>Trisha Joy Alappat</t>
-  </si>
-  <si>
-    <t>trishaalappat@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
-  </si>
-  <si>
-    <t>Jay Sandeep Shinde</t>
-  </si>
-  <si>
-    <t>jayshindee.111@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
-  </si>
-  <si>
     <t>Kaustubh Pankaj Gund</t>
   </si>
   <si>
@@ -1696,9 +1705,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Prasad Subhedar</t>
   </si>
   <si>
@@ -2128,7 +2134,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/69a682ce-5f86-49ea-8069-5d69fcd3a268</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Nicole Pereira</t>
@@ -2237,9 +2243,6 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/3726c962-8497-437c-9609-305dc780fa43</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Sanjay Yadav</t>
@@ -2616,8 +2619,8 @@
   </sheetPr>
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2653,7 +2656,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -2779,42 +2782,45 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2828,13 +2834,13 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -2849,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2860,13 +2866,13 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -2895,28 +2901,28 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2927,28 +2933,28 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2959,28 +2965,28 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2994,13 +3000,13 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -3023,13 +3029,13 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -3044,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -3058,13 +3064,13 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -3093,31 +3099,34 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
       </c>
       <c r="K15" t="s">
         <v>23</v>
@@ -3125,13 +3134,13 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -3146,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3157,13 +3166,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3178,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3189,13 +3198,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -3210,7 +3219,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3221,13 +3230,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3256,13 +3265,13 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3288,13 +3297,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -3317,13 +3326,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -3338,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3349,13 +3358,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -3378,14 +3387,14 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
@@ -3396,10 +3405,10 @@
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -3410,13 +3419,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3431,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3442,28 +3451,28 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3474,13 +3483,13 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -3509,13 +3518,13 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -3536,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
@@ -3544,48 +3553,48 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>118</v>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -3614,13 +3623,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3635,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3646,13 +3655,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3667,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -3681,13 +3690,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3699,10 +3708,10 @@
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3713,13 +3722,13 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3748,13 +3757,13 @@
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3766,10 +3775,10 @@
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3780,13 +3789,13 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3809,13 +3818,13 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -3830,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3841,13 +3850,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3870,13 +3879,13 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -3891,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -3905,13 +3914,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3934,13 +3943,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3955,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3966,13 +3975,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -4001,13 +4010,13 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -4019,10 +4028,10 @@
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -4033,13 +4042,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4068,13 +4077,13 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4097,13 +4106,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4135,13 +4144,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -4170,13 +4179,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4205,13 +4214,13 @@
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4223,10 +4232,10 @@
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4237,13 +4246,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4272,13 +4281,13 @@
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4301,13 +4310,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4322,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -4336,13 +4345,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4357,7 +4366,7 @@
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -4371,13 +4380,13 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -4392,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -4406,13 +4415,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4427,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4438,28 +4447,28 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1">
+        <v>9</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="1">
-        <v>8</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4470,13 +4479,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4491,7 +4500,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4502,13 +4511,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4537,13 +4546,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4566,13 +4575,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4587,7 +4596,7 @@
         <v>9</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4598,13 +4607,13 @@
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4619,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4630,13 +4639,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4659,13 +4668,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4680,7 +4689,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -4691,13 +4700,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4720,13 +4729,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4749,13 +4758,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4778,13 +4787,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4807,13 +4816,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4836,25 +4845,28 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
         <v>247</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -4865,14 +4877,14 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
@@ -4883,10 +4895,10 @@
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4897,13 +4909,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4926,13 +4938,13 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -4955,13 +4967,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -4976,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -4990,13 +5002,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -5014,21 +5026,24 @@
         <v>17</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -5043,7 +5058,7 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -5054,13 +5069,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -5075,7 +5090,7 @@
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -5086,13 +5101,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5107,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -5121,13 +5136,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5150,28 +5165,28 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
         <v>279</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="1">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>79</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -5182,14 +5197,14 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
@@ -5200,10 +5215,10 @@
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -5214,13 +5229,13 @@
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5243,13 +5258,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5272,13 +5287,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5293,7 +5308,7 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
@@ -5307,28 +5322,28 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="1">
+        <v>11</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="1">
-        <v>8</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -5339,13 +5354,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5374,13 +5389,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5403,13 +5418,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5432,13 +5447,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5453,7 +5468,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -5464,13 +5479,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5499,28 +5514,28 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="1">
+        <v>7</v>
+      </c>
+      <c r="H90" t="s">
         <v>316</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="1">
-        <v>5</v>
-      </c>
-      <c r="H90" t="s">
-        <v>92</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -5531,13 +5546,13 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -5558,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K91" t="s">
         <v>19</v>
@@ -5566,13 +5581,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5601,13 +5616,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5630,13 +5645,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5659,13 +5674,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5688,13 +5703,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5717,13 +5732,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5746,28 +5761,28 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="1">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="1">
-        <v>9</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
@@ -5805,10 +5820,13 @@
         <v>17</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
       </c>
       <c r="K99" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5895,10 +5913,10 @@
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5909,13 +5927,13 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -5930,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -5941,13 +5959,13 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
@@ -5962,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -5973,13 +5991,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -6002,13 +6020,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -6031,13 +6049,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -6052,7 +6070,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -6063,13 +6081,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6081,10 +6099,10 @@
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -6095,13 +6113,13 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -6116,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -6127,13 +6145,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6145,10 +6163,10 @@
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -6159,13 +6177,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6180,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -6191,13 +6209,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6220,13 +6238,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6249,13 +6267,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6278,13 +6296,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6299,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6310,13 +6328,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6331,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6342,13 +6360,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6363,7 +6381,7 @@
         <v>17</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -6377,13 +6395,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6406,13 +6424,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6427,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -6438,13 +6456,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6467,13 +6485,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
@@ -6502,13 +6520,13 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6520,13 +6538,16 @@
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I122" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>18</v>
       </c>
       <c r="K122" t="s">
         <v>23</v>
@@ -6534,13 +6555,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6563,13 +6584,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6592,13 +6613,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6613,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -6624,13 +6645,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -6653,13 +6674,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6682,13 +6703,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6711,13 +6732,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6729,10 +6750,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -6743,13 +6764,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6772,13 +6793,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6801,13 +6822,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6830,13 +6851,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6851,7 +6872,7 @@
         <v>6</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6862,13 +6883,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6891,13 +6912,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6909,10 +6930,10 @@
         <v>16</v>
       </c>
       <c r="G135" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -6923,13 +6944,13 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -6944,7 +6965,7 @@
         <v>5</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6955,13 +6976,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -6976,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -6987,13 +7008,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -7022,13 +7043,13 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -7051,13 +7072,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -7080,13 +7101,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7101,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7112,13 +7133,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7133,7 +7154,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7144,13 +7165,13 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -7165,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
@@ -7179,13 +7200,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7208,13 +7229,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7243,13 +7264,13 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7272,13 +7293,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7293,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -7307,13 +7328,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7336,13 +7357,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7365,13 +7386,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7386,7 +7407,7 @@
         <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -7397,13 +7418,13 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7418,7 +7439,7 @@
         <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7429,13 +7450,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7464,13 +7485,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7493,13 +7514,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7522,13 +7543,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7557,13 +7578,13 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7586,13 +7607,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7615,13 +7636,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7650,13 +7671,13 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
@@ -7671,7 +7692,7 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -7682,13 +7703,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7711,13 +7732,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7740,13 +7761,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7775,13 +7796,13 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7793,10 +7814,10 @@
         <v>16</v>
       </c>
       <c r="G163" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>49</v>
+        <v>554</v>
       </c>
       <c r="I163" s="1">
         <v>1</v>
@@ -7810,13 +7831,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7839,13 +7860,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7860,7 +7881,7 @@
         <v>15</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>558</v>
+        <v>384</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
@@ -7874,13 +7895,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7903,13 +7924,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7932,13 +7953,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7953,7 +7974,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -7964,13 +7985,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -7985,7 +8006,7 @@
         <v>3</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -7999,13 +8020,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -8028,13 +8049,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -8057,13 +8078,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -8086,13 +8107,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -8115,13 +8136,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8144,13 +8165,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8165,7 +8186,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8176,13 +8197,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8205,13 +8226,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8234,13 +8255,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8263,13 +8284,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8292,13 +8313,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8313,7 +8334,7 @@
         <v>9</v>
       </c>
       <c r="H180" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -8324,13 +8345,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8353,13 +8374,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8382,13 +8403,13 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -8417,13 +8438,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8446,13 +8467,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8475,13 +8496,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8504,13 +8525,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8525,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -8536,13 +8557,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8565,13 +8586,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8597,13 +8618,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8618,7 +8639,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -8629,13 +8650,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8658,13 +8679,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8687,13 +8708,13 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -8722,13 +8743,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8751,13 +8772,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8780,13 +8801,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8809,13 +8830,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8838,13 +8859,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8867,13 +8888,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8894,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K199" t="s">
         <v>19</v>
@@ -8902,13 +8923,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8931,13 +8952,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -8952,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
@@ -8963,13 +8984,13 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
@@ -8998,13 +9019,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -9027,13 +9048,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -9056,13 +9077,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -9085,13 +9106,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -9114,13 +9135,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9143,13 +9164,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9172,13 +9193,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9201,13 +9222,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9230,13 +9251,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9259,13 +9280,13 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>14</v>
@@ -9277,10 +9298,10 @@
         <v>16</v>
       </c>
       <c r="G212" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -9291,13 +9312,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9320,13 +9341,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9341,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
@@ -9352,13 +9373,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9381,13 +9402,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9410,13 +9431,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9439,13 +9460,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9468,13 +9489,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9497,13 +9518,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9526,13 +9547,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9555,13 +9576,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9584,13 +9605,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9613,13 +9634,13 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
@@ -9631,10 +9652,10 @@
         <v>16</v>
       </c>
       <c r="G224" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>739</v>
+        <v>384</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
@@ -9648,13 +9669,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC93C8A-D3AA-4026-B2CF-17AC338D067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C768511-C6EC-47F8-8CD0-BE930DBBFB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="738">
   <si>
     <t>User Name</t>
   </si>
@@ -214,9 +214,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>JIshnu Gopalakrishnan Nair</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge]</t>
   </si>
   <si>
     <t>Hemal Manohar Bhirud</t>
@@ -268,7 +265,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Sahil Sandeep Vernekar</t>
@@ -280,7 +277,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t>Piyush Prashant Khandait</t>
@@ -292,1597 +289,1606 @@
     <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1, Skills Boost Arcade Trivia October 2025 Week 2, Skills Boost Arcade Trivia October 2025 Week 3, Skills Boost Arcade Trivia October 2025 Week 4</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
+  </si>
+  <si>
+    <t>Jay Sandeep Shinde</t>
+  </si>
+  <si>
+    <t>jayshindee.111@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
+  </si>
+  <si>
+    <t>Kaustubh Pankaj Gund</t>
+  </si>
+  <si>
+    <t>gundkaustubh33@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
+  </si>
+  <si>
+    <t>Jayita Mrityunjoy Chakraborty</t>
+  </si>
+  <si>
+    <t>jayic1707@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
+  </si>
+  <si>
+    <t>Prasad Subhedar</t>
+  </si>
+  <si>
+    <t>progdev25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
+  </si>
+  <si>
+    <t>Smrutishree</t>
+  </si>
+  <si>
+    <t>smrutee2029@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
+  </si>
+  <si>
+    <t>Harshita Vinod Vyas</t>
+  </si>
+  <si>
+    <t>harshitavyas1106@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
+  </si>
+  <si>
+    <t>Gargi Prakash Shringare</t>
+  </si>
+  <si>
+    <t>gargishringare086@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neville Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza18neville@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
+  </si>
+  <si>
+    <t>Sharon Louis</t>
+  </si>
+  <si>
+    <t>louis.sharon197@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
+  </si>
+  <si>
+    <t>Vedant Apraj</t>
+  </si>
+  <si>
+    <t>vedantapraj5125@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
+  </si>
+  <si>
+    <t>Anusha  Gupta</t>
+  </si>
+  <si>
+    <t>anushagupta1375@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
+  </si>
+  <si>
+    <t>Hazel Joy</t>
+  </si>
+  <si>
+    <t>tinywrathbb1403@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
+  </si>
+  <si>
+    <t>Aayush Pulkundwar</t>
+  </si>
+  <si>
+    <t>pulkundwaraayushh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
+  </si>
+  <si>
+    <t>Kenneth Ornello</t>
+  </si>
+  <si>
+    <t>kennethornelloacm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dadd1943-86cb-42b0-bf76-5dd6187433ec</t>
+  </si>
+  <si>
+    <t>Lester Fernandes</t>
+  </si>
+  <si>
+    <t>lestergdc18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c3861e39-4bad-47e9-a1ca-42896aa537c5</t>
+  </si>
+  <si>
+    <t>SHAUN DSOUZA</t>
+  </si>
+  <si>
+    <t>shaundsouza107@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d8b0f920-971a-4641-af69-126889f19d70</t>
+  </si>
+  <si>
+    <t>Aditya Saji</t>
+  </si>
+  <si>
+    <t>adityasaji005@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6a8a5080-9d6b-42f3-ac8b-31c71c247263</t>
+  </si>
+  <si>
+    <t>Saroj Kumawat</t>
+  </si>
+  <si>
+    <t>sarojkumawat476@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cf3ca54d-b75a-440b-a3f4-56b19c624796</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Riya Sibil</t>
+  </si>
+  <si>
+    <t>riyasibil1501@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/abd83aae-c198-4747-a7ad-8d98b5543ec5</t>
+  </si>
+  <si>
+    <t>Tanmay Tajane</t>
+  </si>
+  <si>
+    <t>tajanetanmay16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/862298dd-a74c-4072-b6be-5866756a528f</t>
+  </si>
+  <si>
+    <t>Bhumi Kadam</t>
+  </si>
+  <si>
+    <t>kbhumii005@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
+  </si>
+  <si>
+    <t>Kuthokathan Alister Varghese</t>
+  </si>
+  <si>
+    <t>alistervarghese10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7e26d127-5dd1-455b-a590-7a00c82a482e</t>
+  </si>
+  <si>
+    <t>Nathan Furtado</t>
+  </si>
+  <si>
+    <t>furtadonathan16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b878b93b-103e-4f52-b048-9d928179c8ff</t>
+  </si>
+  <si>
+    <t>Ashlesha Tambata</t>
+  </si>
+  <si>
+    <t>tambatashlesha16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5a94fd4e-4d32-450f-8abc-9322a7c2ad23</t>
+  </si>
+  <si>
+    <t>Siya Bhutada</t>
+  </si>
+  <si>
+    <t>siyabhutada08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/342f82e9-0cb1-41d7-b747-e2b8a1f12877</t>
+  </si>
+  <si>
     <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Set Up a Google Cloud Network [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1, Skills Boost Arcade Trivia October 2025 Week 2, Skills Boost Arcade Trivia October 2025 Week 3, Skills Boost Arcade Trivia October 2025 Week 4</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
-    <t>Keshav Prajapati</t>
-  </si>
-  <si>
-    <t>kpcode3105@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
-  </si>
-  <si>
-    <t>Anurag Ajit Bhide</t>
-  </si>
-  <si>
-    <t>anuragbhide0906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
-  </si>
-  <si>
-    <t>Dylan Noronha</t>
-  </si>
-  <si>
-    <t>dylannoronha80@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
-  </si>
-  <si>
-    <t>Saksham Sanjay Patil</t>
-  </si>
-  <si>
-    <t>patilsaksham7890@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dev Dominic</t>
-  </si>
-  <si>
-    <t>dominicdev2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
-  </si>
-  <si>
-    <t>Prasad Atmaram Shinde</t>
-  </si>
-  <si>
-    <t>prasadshinde0019@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
-  </si>
-  <si>
-    <t>Trisha Joy Alappat</t>
-  </si>
-  <si>
-    <t>trishaalappat@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
-  </si>
-  <si>
-    <t>Jay Sandeep Shinde</t>
-  </si>
-  <si>
-    <t>jayshindee.111@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
-  </si>
-  <si>
-    <t>Kaustubh Pankaj Gund</t>
-  </si>
-  <si>
-    <t>gundkaustubh33@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
-  </si>
-  <si>
-    <t>Jayita Mrityunjoy Chakraborty</t>
-  </si>
-  <si>
-    <t>jayic1707@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
-  </si>
-  <si>
-    <t>Prasad Subhedar</t>
-  </si>
-  <si>
-    <t>progdev25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
-  </si>
-  <si>
-    <t>Smrutishree</t>
-  </si>
-  <si>
-    <t>smrutee2029@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
-  </si>
-  <si>
-    <t>Harshita Vinod Vyas</t>
-  </si>
-  <si>
-    <t>harshitavyas1106@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
-  </si>
-  <si>
-    <t>Gargi Prakash Shringare</t>
-  </si>
-  <si>
-    <t>gargishringare086@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/57d384de-2049-49fe-afeb-2fe0aa8b3209</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neville Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza18neville@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/615cae42-24ea-468c-8fa5-56130845cf2b</t>
-  </si>
-  <si>
-    <t>Sharon Louis</t>
-  </si>
-  <si>
-    <t>louis.sharon197@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2e651b61-3a47-4a9e-8540-5e928cc820cc</t>
-  </si>
-  <si>
-    <t>Vedant Apraj</t>
-  </si>
-  <si>
-    <t>vedantapraj5125@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1414459f-e302-4edc-ad0e-37f27f31ab76</t>
-  </si>
-  <si>
-    <t>Anusha  Gupta</t>
-  </si>
-  <si>
-    <t>anushagupta1375@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5ed7b37f-1b5b-451f-848c-683b2784d150</t>
-  </si>
-  <si>
-    <t>Hazel Joy</t>
-  </si>
-  <si>
-    <t>tinywrathbb1403@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8573c859-e515-4e0c-88c9-a8501b0ee805</t>
-  </si>
-  <si>
-    <t>Aayush Pulkundwar</t>
-  </si>
-  <si>
-    <t>pulkundwaraayushh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8226f80c-1ee0-43d2-87bf-4884bae95058</t>
-  </si>
-  <si>
-    <t>Kenneth Ornello</t>
-  </si>
-  <si>
-    <t>kennethornelloacm@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dadd1943-86cb-42b0-bf76-5dd6187433ec</t>
-  </si>
-  <si>
-    <t>Lester Fernandes</t>
-  </si>
-  <si>
-    <t>lestergdc18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c3861e39-4bad-47e9-a1ca-42896aa537c5</t>
-  </si>
-  <si>
-    <t>SHAUN DSOUZA</t>
-  </si>
-  <si>
-    <t>shaundsouza107@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d8b0f920-971a-4641-af69-126889f19d70</t>
-  </si>
-  <si>
-    <t>Aditya Saji</t>
-  </si>
-  <si>
-    <t>adityasaji005@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6a8a5080-9d6b-42f3-ac8b-31c71c247263</t>
-  </si>
-  <si>
-    <t>Saroj Kumawat</t>
-  </si>
-  <si>
-    <t>sarojkumawat476@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cf3ca54d-b75a-440b-a3f4-56b19c624796</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Riya Sibil</t>
-  </si>
-  <si>
-    <t>riyasibil1501@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/abd83aae-c198-4747-a7ad-8d98b5543ec5</t>
-  </si>
-  <si>
-    <t>Tanmay Tajane</t>
-  </si>
-  <si>
-    <t>tajanetanmay16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/862298dd-a74c-4072-b6be-5866756a528f</t>
-  </si>
-  <si>
-    <t>Bhumi Kadam</t>
-  </si>
-  <si>
-    <t>kbhumii005@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/79e88a45-74c0-486b-8bf7-ba7b3614edbb</t>
-  </si>
-  <si>
-    <t>Kuthokathan Alister Varghese</t>
-  </si>
-  <si>
-    <t>alistervarghese10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7e26d127-5dd1-455b-a590-7a00c82a482e</t>
-  </si>
-  <si>
-    <t>Nathan Furtado</t>
-  </si>
-  <si>
-    <t>furtadonathan16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b878b93b-103e-4f52-b048-9d928179c8ff</t>
-  </si>
-  <si>
-    <t>Ashlesha Tambata</t>
-  </si>
-  <si>
-    <t>tambatashlesha16@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5a94fd4e-4d32-450f-8abc-9322a7c2ad23</t>
-  </si>
-  <si>
-    <t>Siya Bhutada</t>
-  </si>
-  <si>
-    <t>siyabhutada08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/342f82e9-0cb1-41d7-b747-e2b8a1f12877</t>
   </si>
   <si>
     <t>Soham Datar</t>
@@ -2595,8 +2601,8 @@
   </sheetPr>
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="M180" sqref="M180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2901,10 +2907,13 @@
         <v>17</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3128,10 +3137,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3142,13 +3151,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -3163,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3174,28 +3183,28 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3206,13 +3215,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -3241,13 +3250,13 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -3273,28 +3282,28 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -3305,28 +3314,28 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -3337,28 +3346,28 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
         <v>89</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>90</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -3369,13 +3378,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -3404,13 +3413,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -3425,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3436,13 +3445,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -3457,7 +3466,7 @@
         <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3468,13 +3477,13 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -3503,13 +3512,13 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -3530,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
@@ -3538,28 +3547,28 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -3573,13 +3582,13 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -3608,13 +3617,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -3629,7 +3638,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -3640,13 +3649,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -3661,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -3675,13 +3684,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3707,13 +3716,13 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3742,28 +3751,28 @@
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="1">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3792,7 +3801,10 @@
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -3803,13 +3815,13 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -3824,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3835,13 +3847,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3864,13 +3876,13 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -3885,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -3899,13 +3911,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3928,13 +3940,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3949,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3960,13 +3972,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -3995,13 +4007,13 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -4027,13 +4039,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4062,13 +4074,13 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4091,13 +4103,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4129,13 +4141,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -4164,13 +4176,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4199,13 +4211,13 @@
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4234,13 +4246,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4269,13 +4281,13 @@
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4301,13 +4313,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4319,10 +4331,10 @@
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -4331,7 +4343,7 @@
         <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4389,10 +4401,10 @@
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -4406,13 +4418,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4424,10 +4436,10 @@
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -4441,13 +4453,13 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -4462,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4473,13 +4485,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4505,13 +4517,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4540,13 +4552,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4569,13 +4581,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4593,21 +4605,24 @@
         <v>17</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4622,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4633,13 +4648,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4651,10 +4666,10 @@
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -4665,13 +4680,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4686,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -4697,13 +4712,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4726,13 +4741,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4755,13 +4770,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4784,13 +4799,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4813,13 +4828,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4842,13 +4857,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -4863,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -4874,13 +4889,13 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -4895,10 +4910,13 @@
         <v>18</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
       </c>
       <c r="K70" t="s">
         <v>23</v>
@@ -4906,13 +4924,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4935,13 +4953,13 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -4956,7 +4974,7 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -4967,13 +4985,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -4988,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -5002,13 +5020,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -5037,13 +5055,13 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -5058,10 +5076,13 @@
         <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
       </c>
       <c r="K75" t="s">
         <v>23</v>
@@ -5069,13 +5090,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -5101,13 +5122,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5122,7 +5143,7 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -5136,13 +5157,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5165,13 +5186,13 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
@@ -5200,13 +5221,13 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -5224,21 +5245,24 @@
         <v>17</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5261,13 +5285,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5290,13 +5314,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5308,10 +5332,10 @@
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
@@ -5325,13 +5349,13 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -5357,13 +5381,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5392,13 +5416,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5421,13 +5445,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5450,13 +5474,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5471,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -5482,13 +5506,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5517,13 +5541,13 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5535,27 +5559,30 @@
         <v>16</v>
       </c>
       <c r="G90" s="1">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
         <v>18</v>
       </c>
-      <c r="H90" t="s">
-        <v>64</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
       <c r="K90" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -5576,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K91" t="s">
         <v>19</v>
@@ -5584,13 +5611,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5619,13 +5646,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5648,13 +5675,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5677,13 +5704,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
@@ -5706,13 +5733,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5735,13 +5762,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5756,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -5767,13 +5794,13 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -5802,13 +5829,13 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -5837,13 +5864,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -5872,13 +5899,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5901,13 +5928,13 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -5919,13 +5946,16 @@
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>18</v>
       </c>
       <c r="K102" t="s">
         <v>23</v>
@@ -5933,13 +5963,13 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -5954,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -5965,13 +5995,13 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
@@ -5983,10 +6013,10 @@
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -5997,13 +6027,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -6026,13 +6056,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -6055,13 +6085,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -6076,7 +6106,7 @@
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -6087,13 +6117,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6105,10 +6135,10 @@
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H108" t="s">
-        <v>36</v>
+        <v>372</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -6119,13 +6149,13 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -6154,13 +6184,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6189,13 +6219,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6210,7 +6240,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I111" s="1">
         <v>1</v>
@@ -6224,13 +6254,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6253,13 +6283,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6282,13 +6312,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6311,13 +6341,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6332,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6343,13 +6373,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
@@ -6361,10 +6391,10 @@
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6375,13 +6405,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6396,7 +6426,7 @@
         <v>17</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -6410,13 +6440,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6439,13 +6469,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6460,7 +6490,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -6471,13 +6501,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6500,13 +6530,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
@@ -6535,13 +6565,13 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6553,10 +6583,10 @@
         <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="I122" s="1">
         <v>1</v>
@@ -6570,13 +6600,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6599,13 +6629,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6628,13 +6658,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6649,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -6660,13 +6690,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -6678,10 +6708,10 @@
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
@@ -6692,13 +6722,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6721,13 +6751,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6750,13 +6780,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6785,13 +6815,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6814,13 +6844,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6843,13 +6873,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6872,13 +6902,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6893,7 +6923,7 @@
         <v>9</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6904,13 +6934,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6933,13 +6963,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6965,13 +6995,13 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -6983,10 +7013,10 @@
         <v>16</v>
       </c>
       <c r="G136" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6997,13 +7027,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -7018,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -7029,13 +7059,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -7064,13 +7094,13 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -7093,13 +7123,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -7122,13 +7152,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7143,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7154,13 +7184,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7175,7 +7205,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7186,13 +7216,13 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -7207,7 +7237,7 @@
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
@@ -7221,13 +7251,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7250,13 +7280,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7285,13 +7315,13 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7314,13 +7344,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -7332,10 +7362,10 @@
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>112</v>
+        <v>499</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -7349,13 +7379,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7378,13 +7408,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7402,21 +7432,24 @@
         <v>17</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>18</v>
       </c>
       <c r="K149" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7434,21 +7467,24 @@
         <v>17</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
       </c>
       <c r="K150" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7460,10 +7496,10 @@
         <v>16</v>
       </c>
       <c r="G151" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7474,13 +7510,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7509,13 +7545,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7538,13 +7574,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7567,13 +7603,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7602,13 +7638,13 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7631,13 +7667,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7660,13 +7696,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7695,13 +7731,13 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
@@ -7713,10 +7749,10 @@
         <v>16</v>
       </c>
       <c r="G159" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -7727,13 +7763,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7756,13 +7792,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7785,13 +7821,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7820,13 +7856,13 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7855,13 +7891,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
@@ -7873,7 +7909,10 @@
         <v>16</v>
       </c>
       <c r="G164" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H164" t="s">
+        <v>89</v>
       </c>
       <c r="I164" s="1">
         <v>0</v>
@@ -7884,13 +7923,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7919,13 +7958,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7948,13 +7987,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -7977,13 +8016,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
@@ -7995,10 +8034,10 @@
         <v>16</v>
       </c>
       <c r="G168" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -8009,13 +8048,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -8030,7 +8069,7 @@
         <v>7</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -8044,13 +8083,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -8073,13 +8112,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -8102,13 +8141,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -8131,13 +8170,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -8160,13 +8199,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8189,13 +8228,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8210,7 +8249,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8221,13 +8260,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8250,13 +8289,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8279,13 +8318,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8308,13 +8347,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8337,13 +8376,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8358,7 +8397,7 @@
         <v>17</v>
       </c>
       <c r="H180" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I180" s="1">
         <v>1</v>
@@ -8372,13 +8411,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8401,13 +8440,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8436,13 +8475,13 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -8471,13 +8510,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8500,13 +8539,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8529,13 +8568,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8547,7 +8586,10 @@
         <v>16</v>
       </c>
       <c r="G186" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>466</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
@@ -8558,13 +8600,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8579,7 +8621,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>90</v>
+        <v>622</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -8590,13 +8632,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8619,13 +8661,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8651,13 +8693,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8672,7 +8714,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -8683,13 +8725,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8712,13 +8754,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8741,13 +8783,13 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -8776,13 +8818,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8805,13 +8847,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8834,13 +8876,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8863,13 +8905,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8892,13 +8934,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8921,13 +8963,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8948,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K199" t="s">
         <v>19</v>
@@ -8956,13 +8998,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -8985,13 +9027,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -9006,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
@@ -9017,13 +9059,13 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
@@ -9052,13 +9094,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -9081,13 +9123,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -9110,13 +9152,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -9139,13 +9181,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -9168,13 +9210,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9197,13 +9239,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9226,13 +9268,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9255,13 +9297,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9284,13 +9326,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9313,13 +9355,13 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>14</v>
@@ -9348,13 +9390,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9377,13 +9419,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9398,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
@@ -9409,13 +9451,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9438,13 +9480,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9459,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I216" s="1">
         <v>0</v>
@@ -9470,13 +9512,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9499,13 +9541,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9528,13 +9570,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9557,13 +9599,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9586,13 +9628,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9615,13 +9657,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9644,13 +9686,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9673,13 +9715,13 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
@@ -9708,13 +9750,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C768511-C6EC-47F8-8CD0-BE930DBBFB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEF09A-1B5F-4DB4-9052-34E0C435DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="738">
   <si>
     <t>User Name</t>
   </si>
@@ -289,1200 +289,1197 @@
     <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1, Skills Boost Arcade Trivia October 2025 Week 2, Skills Boost Arcade Trivia October 2025 Week 3, Skills Boost Arcade Trivia October 2025 Week 4</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Cloud Run Functions: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
-  </si>
-  <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game], Skills Boost Arcade Base Camp October 2025, Skills Boost Arcade Trivia October 2025 Week 1, Skills Boost Arcade Trivia October 2025 Week 2, Skills Boost Arcade Trivia October 2025 Week 3, Skills Boost Arcade Trivia October 2025 Week 4</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
     <t>Ameya Gadre</t>
   </si>
   <si>
@@ -1519,9 +1516,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
   </si>
   <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
     <t>Joshua Almeida</t>
   </si>
   <si>
@@ -1675,6 +1669,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Jayita Mrityunjoy Chakraborty</t>
   </si>
   <si>
@@ -2234,6 +2231,9 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/2a11032d-f07c-47ed-b6b5-9543f1b0d851</t>
+  </si>
+  <si>
+    <t>prince</t>
   </si>
 </sst>
 </file>
@@ -2599,10 +2599,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="M180" sqref="M180"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2942,10 +2942,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3149,7 +3152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -3279,8 +3282,11 @@
       <c r="K20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>89</v>
@@ -3376,7 +3382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>111</v>
@@ -3580,7 +3586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -3684,13 +3690,13 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3716,13 +3722,13 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3751,13 +3757,13 @@
     </row>
     <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -3772,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3783,13 +3789,13 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3804,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -3815,13 +3821,13 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -3836,10 +3842,13 @@
         <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
       </c>
       <c r="K37" t="s">
         <v>23</v>
@@ -3847,13 +3856,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -3876,13 +3885,13 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -3897,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -3911,13 +3920,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -3940,13 +3949,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -3961,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3972,13 +3981,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -4007,13 +4016,13 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -4039,13 +4048,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
@@ -4074,13 +4083,13 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -4103,13 +4112,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -4141,13 +4150,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -4176,13 +4185,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -4211,13 +4220,13 @@
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -4246,13 +4255,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -4281,13 +4290,13 @@
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -4313,13 +4322,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -4348,13 +4357,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -4369,7 +4378,7 @@
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -4383,28 +4392,28 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="1">
-        <v>4</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -4418,13 +4427,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -4439,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -4453,28 +4462,28 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="1">
-        <v>12</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4485,13 +4494,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -4517,13 +4526,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -4552,13 +4561,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -4581,13 +4590,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -4616,13 +4625,13 @@
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -4637,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4648,13 +4657,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -4669,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -4680,13 +4689,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -4701,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -4712,13 +4721,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -4741,13 +4750,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -4770,13 +4779,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -4799,13 +4808,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -4828,13 +4837,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -4857,13 +4866,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -4878,7 +4887,7 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -4889,13 +4898,13 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -4924,13 +4933,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -4953,14 +4962,14 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
@@ -4971,10 +4980,10 @@
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -4985,13 +4994,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -5006,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -5020,13 +5029,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -5055,14 +5064,14 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
@@ -5073,10 +5082,10 @@
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -5090,13 +5099,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -5122,13 +5131,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -5143,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -5157,13 +5166,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -5186,13 +5195,13 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
@@ -5221,13 +5230,13 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -5256,13 +5265,13 @@
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -5285,13 +5294,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -5314,13 +5323,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -5335,7 +5344,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
@@ -5349,13 +5358,13 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -5381,13 +5390,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -5416,13 +5425,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -5445,13 +5454,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -5474,13 +5483,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -5495,7 +5504,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -5506,13 +5515,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -5541,13 +5550,13 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
@@ -5576,13 +5585,13 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -5603,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K91" t="s">
         <v>19</v>
@@ -5611,13 +5620,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
@@ -5646,13 +5655,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -5675,13 +5684,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
@@ -5704,14 +5713,14 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
@@ -5722,10 +5731,16 @@
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>153</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
       </c>
       <c r="K95" t="s">
         <v>23</v>
@@ -5733,13 +5748,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
@@ -5762,13 +5777,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -5783,7 +5798,7 @@
         <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -5794,13 +5809,13 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -5829,13 +5844,13 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -5864,13 +5879,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -5899,13 +5914,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -5928,14 +5943,14 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
@@ -5946,10 +5961,10 @@
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>352</v>
+        <v>17</v>
       </c>
       <c r="I102" s="1">
         <v>1</v>
@@ -5958,18 +5973,18 @@
         <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -5995,31 +6010,34 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="1">
+        <v>18</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="1">
-        <v>17</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
       </c>
       <c r="K104" t="s">
         <v>23</v>
@@ -6027,13 +6045,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -6056,13 +6074,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -6085,13 +6103,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -6103,7 +6121,7 @@
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H107" t="s">
         <v>89</v>
@@ -6117,13 +6135,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6138,7 +6156,7 @@
         <v>8</v>
       </c>
       <c r="H108" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -6149,13 +6167,13 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -6184,13 +6202,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -6219,13 +6237,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -6240,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I111" s="1">
         <v>1</v>
@@ -6254,13 +6272,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -6283,13 +6301,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -6312,13 +6330,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
@@ -6341,13 +6359,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -6362,7 +6380,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -6373,28 +6391,28 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1">
+        <v>17</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1">
-        <v>16</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -6405,13 +6423,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -6426,7 +6444,7 @@
         <v>17</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -6440,13 +6458,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -6469,13 +6487,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -6490,7 +6508,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -6501,13 +6519,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
@@ -6530,13 +6548,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
@@ -6565,13 +6583,13 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
@@ -6586,7 +6604,7 @@
         <v>18</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
       <c r="I122" s="1">
         <v>1</v>
@@ -6600,13 +6618,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
@@ -6629,13 +6647,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -6658,13 +6676,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
@@ -6679,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -6690,14 +6708,14 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
       </c>
@@ -6708,10 +6726,10 @@
         <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
@@ -6722,13 +6740,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -6751,13 +6769,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -6780,13 +6798,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6815,13 +6833,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -6844,13 +6862,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6873,13 +6891,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
@@ -6902,13 +6920,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
@@ -6923,7 +6941,7 @@
         <v>9</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6934,13 +6952,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
@@ -6963,13 +6981,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -6987,21 +7005,24 @@
         <v>17</v>
       </c>
       <c r="I135" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
       </c>
       <c r="K135" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
@@ -7016,7 +7037,7 @@
         <v>11</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -7027,13 +7048,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -7048,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -7059,13 +7080,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -7094,13 +7115,13 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
@@ -7123,13 +7144,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
@@ -7152,13 +7173,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -7173,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7184,13 +7205,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -7205,7 +7226,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -7216,28 +7237,28 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="D143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="1">
+        <v>6</v>
+      </c>
+      <c r="H143" t="s">
         <v>485</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="1">
-        <v>5</v>
-      </c>
-      <c r="H143" t="s">
-        <v>219</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
@@ -7251,13 +7272,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
@@ -7280,13 +7301,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
@@ -7315,13 +7336,13 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -7344,14 +7365,14 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
       </c>
@@ -7362,10 +7383,10 @@
         <v>16</v>
       </c>
       <c r="G147" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -7374,18 +7395,18 @@
         <v>18</v>
       </c>
       <c r="K147" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -7408,13 +7429,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -7443,13 +7464,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7478,13 +7499,13 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -7499,7 +7520,7 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I151" s="1">
         <v>0</v>
@@ -7510,13 +7531,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7545,13 +7566,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -7574,13 +7595,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7603,13 +7624,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7638,13 +7659,13 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -7667,13 +7688,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
@@ -7696,13 +7717,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
@@ -7731,13 +7752,13 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
@@ -7763,13 +7784,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
@@ -7792,13 +7813,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -7821,13 +7842,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
@@ -7856,13 +7877,13 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
@@ -7891,28 +7912,28 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="1">
+        <v>9</v>
+      </c>
+      <c r="H164" t="s">
         <v>549</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" s="1">
-        <v>6</v>
-      </c>
-      <c r="H164" t="s">
-        <v>89</v>
       </c>
       <c r="I164" s="1">
         <v>0</v>
@@ -7923,13 +7944,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -7958,13 +7979,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
@@ -7987,13 +8008,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -8016,14 +8037,14 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
       </c>
@@ -8034,10 +8055,10 @@
         <v>16</v>
       </c>
       <c r="G168" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>36</v>
+        <v>369</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -8048,13 +8069,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
@@ -8069,7 +8090,7 @@
         <v>7</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -8083,13 +8104,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -8112,13 +8133,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -8141,13 +8162,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
@@ -8170,13 +8191,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
@@ -8199,13 +8220,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
@@ -8228,13 +8249,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
@@ -8249,7 +8270,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8260,13 +8281,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -8289,13 +8310,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
@@ -8318,13 +8339,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
@@ -8347,13 +8368,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -8376,13 +8397,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -8397,7 +8418,7 @@
         <v>17</v>
       </c>
       <c r="H180" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I180" s="1">
         <v>1</v>
@@ -8411,13 +8432,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -8440,13 +8461,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -8475,13 +8496,13 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -8510,13 +8531,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
@@ -8539,13 +8560,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -8568,13 +8589,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
@@ -8589,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
@@ -8600,13 +8621,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
@@ -8621,7 +8642,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -8632,13 +8653,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
@@ -8661,13 +8682,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
@@ -8693,13 +8714,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
@@ -8725,13 +8746,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
@@ -8754,13 +8775,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
@@ -8783,13 +8804,13 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -8818,13 +8839,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
@@ -8847,13 +8868,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
@@ -8876,13 +8897,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
@@ -8905,13 +8926,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -8934,13 +8955,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
@@ -8963,13 +8984,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
@@ -8990,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K199" t="s">
         <v>19</v>
@@ -8998,13 +9019,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -9027,13 +9048,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -9048,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
@@ -9059,13 +9080,13 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
@@ -9094,13 +9115,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -9123,13 +9144,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
@@ -9152,13 +9173,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
@@ -9181,13 +9202,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -9210,13 +9231,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
@@ -9239,13 +9260,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
@@ -9268,13 +9289,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
@@ -9297,13 +9318,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -9326,13 +9347,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
@@ -9355,13 +9376,13 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>14</v>
@@ -9390,13 +9411,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
@@ -9419,13 +9440,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
@@ -9440,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
@@ -9451,13 +9472,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -9480,13 +9501,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -9501,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I216" s="1">
         <v>0</v>
@@ -9512,13 +9533,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -9541,13 +9562,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -9570,13 +9591,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -9599,13 +9620,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
@@ -9628,13 +9649,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
@@ -9657,13 +9678,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -9686,13 +9707,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
@@ -9715,13 +9736,13 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
@@ -9750,13 +9771,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>

--- a/data/H.xlsx
+++ b/data/H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEF09A-1B5F-4DB4-9052-34E0C435DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197238B-E139-4962-9F59-88E4233EBD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="738">
   <si>
     <t>User Name</t>
   </si>
@@ -277,7 +277,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
   </si>
   <si>
     <t>Piyush Prashant Khandait</t>
@@ -388,6 +388,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Simone Agnel D'sa</t>
   </si>
   <si>
@@ -439,7 +442,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Shubham chandrashekar padhy</t>
@@ -604,7 +607,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
   </si>
   <si>
-    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Shraddha Sheshagiri Hebbar</t>
@@ -616,204 +619,204 @@
     <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
   </si>
   <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
     <t>Yash Sanjay</t>
   </si>
   <si>
@@ -832,7 +835,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
   </si>
   <si>
-    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Shane Fernandes</t>
@@ -937,7 +940,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
   </si>
   <si>
-    <t>Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], Build a Website on Google Cloud [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
     <t>Tanvi Kale</t>
@@ -1006,6 +1009,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Keshav Kuldip Prajapati</t>
   </si>
   <si>
@@ -1024,9 +1030,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
     <t>Prathmesh Manoj Sawant</t>
   </si>
   <si>
@@ -1090,9 +1093,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
   </si>
   <si>
-    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
     <t>Daniel Fernandes</t>
   </si>
   <si>
@@ -1120,6 +1120,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
   </si>
   <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Tanvi Rupesh Patil</t>
   </si>
   <si>
@@ -1129,753 +1132,753 @@
     <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
   </si>
   <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Google Workspace Tools [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Prompt Design in Vertex AI [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Pub/Sub [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
+  </si>
+  <si>
+    <t>Keshav Prajapati</t>
+  </si>
+  <si>
+    <t>kpcode3105@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/238707b8-f1fe-4c48-bc26-f6579f7d6d28</t>
+  </si>
+  <si>
+    <t>Anurag Ajit Bhide</t>
+  </si>
+  <si>
+    <t>anuragbhide0906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f788278-373c-4477-b7f4-a9f6290cb3a8</t>
+  </si>
+  <si>
+    <t>Dylan Noronha</t>
+  </si>
+  <si>
+    <t>dylannoronha80@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e0af4be4-1d55-4c61-8df3-87767db139fc</t>
+  </si>
+  <si>
+    <t>Saksham Sanjay Patil</t>
+  </si>
+  <si>
+    <t>patilsaksham7890@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3087e65e-e11d-4396-87ba-1e6ea133ccdc</t>
+  </si>
+  <si>
+    <t>Dev Dominic</t>
+  </si>
+  <si>
+    <t>dominicdev2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2325bacb-7ac8-43f8-946a-45c2c76ec50d</t>
+  </si>
+  <si>
+    <t>Prasad Atmaram Shinde</t>
+  </si>
+  <si>
+    <t>prasadshinde0019@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6e146a4-dd29-43f3-8af9-b8772cd4e4f4</t>
+  </si>
+  <si>
+    <t>Trisha Joy Alappat</t>
+  </si>
+  <si>
+    <t>trishaalappat@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2a4e14-975d-401c-ad83-60a6abec5cbf</t>
+  </si>
+  <si>
+    <t>Jay Sandeep Shinde</t>
+  </si>
+  <si>
+    <t>jayshindee.111@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/08a4b3d7-5238-498f-9df7-bf082dae261d</t>
+  </si>
+  <si>
+    <t>Kaustubh Pankaj Gund</t>
+  </si>
+  <si>
+    <t>gundkaustubh33@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/afce0254-6ff1-4358-9a91-b6231a9d10fd</t>
+  </si>
+  <si>
+    <t>Analyze Speech and Language with Google APIs [Skill Badge], App Building with AppSheet [Skill Badge], App Engine: 3 Ways [Skill Badge], Build a Website on Google Cloud [Skill Badge], Cloud Run Functions: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Develop Gen AI Apps with Gemini and Streamlit [Skill Badge], Develop with Apps Script and AppSheet [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Looker [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], Set Up a Google Cloud Network [Skill Badge], Store, Process, and Manage Data on Google Cloud - Console [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jayita Mrityunjoy Chakraborty</t>
+  </si>
+  <si>
+    <t>jayic1707@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
+  </si>
+  <si>
+    <t>Prasad Subhedar</t>
+  </si>
+  <si>
+    <t>progdev25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b62a0672-8bd7-468e-bae6-3bd867394c9b</t>
+  </si>
+  <si>
+    <t>Smrutishree</t>
+  </si>
+  <si>
+    <t>smrutee2029@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7fa9822a-79f2-4566-9946-f36d23813b57</t>
+  </si>
+  <si>
+    <t>Harshita Vinod Vyas</t>
+  </si>
+  <si>
+    <t>harshitavyas1106@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/909d1d52-b79d-45c2-bf14-42fd2eeebc76</t>
+  </si>
+  <si>
     <t>App Engine: 3 Ways [Skill Badge], Cloud Speech API: 3 Ways [Skill Badge], Get Started with API Gateway [Skill Badge], Get Started with Cloud Storage [Skill Badge], Get Started with Dataplex [Skill Badge], Get Started with Pub/Sub [Skill Badge], Monitoring in Google Cloud [Skill Badge], The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboos